--- a/finetuning/it_datasets/qa_dataset/qa_it_akouda_dataset.xlsx
+++ b/finetuning/it_datasets/qa_dataset/qa_it_akouda_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y45"/>
+  <dimension ref="A1:Z45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,7 +551,12 @@
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>choices</t>
         </is>
       </c>
     </row>
@@ -643,14 +648,56 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>If you're in Akouda, the CAFE LAADHARI is a top-rated destination for Cafe lovers. With a rating of 4.1, this cafe is a perfect spot to enjoy a range of offerings. Its location is WH57+CGM CAFE LAADHARI, Akouda. 
-To get there, use these GPS coordinates: (35.8736484, 10.5695322) or follow this link 
-https://www.google.com/maps/place/CAFE+LAADHARI/data=!4m7!3m6!1s0x12fd89d0858f0e6b:0xe7db0eeaa38a4556!8m2!3d35.9085989!4d10.563783!16s%2Fg%2F11sgz12kxg!19sChIJaw6PhdCJ_RIRVkWKo-oO2-c?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>CAFE LAADHARI is a cafe located in akouda with an impressive rating of 4.1 based on 51 reviews. The cafe offers various quad specialties, a popular item among its customers. Geographically, CAFE LAADHARI is situated at the coordinates (35.8736484, 10.5695322), making it easily accessible to visitors in the area.</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>Where is the highly-rated CAFE LAADHARI located, known for its diverse cafe offerings and an impressive rating of 4.1?</t>
+          <t>Day Plan:
+Morning: Exploring Koussour Gharnata hotel and its surroundings
+Mid-Morning: Trying local cuisine at Ilcapo
+Midday: Visiting Municipality of Akouda to learn about local government
+Afternoon: Enjoying a walk and scenic views at Akouda gas station
+Evening: Participating in a dance event at AND Dance Sousse
+Night: Relaxing at the Giornale cafe with a cup of coffee</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe La Sirene is a cafe located in Akouda, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is located at WH7F+QMX and can be contacted by phone at 73 328 049.
+Giornale is a café located in Av. de la Republique, Akouda. It is a popular spot for coffee, tea, and snacks, and offers a cozy atmosphere to relax and enjoy a cup of coffee. Giornale has a rating of 5.0 on Google reviews, and is open from 5am to 1am.
+**Ilcapo: A 24/7 Oasis in Akouda**
+Discover Ilcapo, a vibrant cafeteria offering a 24/7 sanctuary in Akouda. Located at VHF8+2P3, Ilcapo boasts a cozy atmosphere and an extensive menu of delectable treats. With a 5-star rating and glowing reviews praising its exceptional service and appetizing offerings, this cafe has become a beloved destination for locals and visitors alike.
+Discover Rapido food, Akouda's restaurant with a stellar 5.0 rating. Experience culinary delights in a convenient location, just a call away at 54 702 701. Using the website link, explore their offerings and plan your next dining experience.
+Municipality of Akouda is located in Akouda, Tunisia. It is an administrative municipal building that provides local government services to the community. The municipality's office hours are from 8:00 AM to 5:00 PM during weekdays, and it is closed on Sundays.
+In the heart of Akouda, Koussour Gharnata offers a luxurious hotel experience. With impeccable ratings, the hotel boasts a prime location with convenient access to local attractions. Whether you're seeking relaxation or adventure, Koussour Gharnata invites you to explore its exceptional amenities and the vibrant city that surrounds it.
+Located in Akouda, AND Dance Sousse is a dance club offering a vibrant atmosphere for dance enthusiasts. With a focus on dance and entertainment, the club provides a platform for individuals to showcase their moves and enjoy the rhythm. Its proximity to the city center at longitude 10.637853127292 and latitude 35.820659199508 makes it easily accessible for patrons seeking a lively and immersive dance experience.
+Gambino's pizza is a pizzeria located in akouda. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at the coordinates (39.561562, -95.121066).
+Akouda is a gas station located in Akouda, at the coordinates (35.866141102648, 10.573438518111). It offers various services and products related to fueling and maintaining vehicles. The gas station is open from Monday to Saturday from 8:00 AM to 5:00 PM and is closed on Sundays.
+Station de Transport Akouda - Chott Mariem, found in Akouda, Tunisia, is a taxi station that provides reliable transportation services. It is conveniently located at the coordinates (35.8691, 10.5653), making it easily accessible for locals and visitors alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -750,12 +797,56 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>If you're in akouda and looking for something fun to do, check out Cafe Hilal located at VH8C+85R Cafe Hilal, Akouda. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 04:30-00:00, but closed on . To get there, use these GPS coordinates: 35.8736484, 10.5695322. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Hilal/data=!4m7!3m6!1s0x12fd8bcbeccb5895:0x58ffd0dce2188327!8m2!3d35.8658637!4d10.5703919!16s%2Fg%2F1td80h0b!19sChIJlVjL7MuL_RIRJ4MY4tzQ_1g?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 25 374 349.</t>
+          <t>Discover Cafe Hilal, located in Akouda. Its prime location offers easy accessibility. Step into a cozy atmosphere and savor delectable offerings from their curated menu. Cafe Hilal awaits your visit, promising a delightful culinary experience.</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>If you're in Akouda and craving a cup of coffee or a bite to eat, where should you head to for a top-rated experience?</t>
+          <t>Day Plan:
+Morning: Explore the Municipality of Akouda to gain insights into local governance and community affairs.
+Mid-Morning: Visit Koussour Gharnata, a luxurious hotel offering impeccable ratings, to appreciate its exceptional amenities and prime location. Take in the surrounding vibrant city views.
+Midday: Indulge in a delightful culinary experience at Fast food Mexico, renowned for its diverse Mexican dishes. Savor the authentic flavors and ambiance of this popular restaurant.
+Afternoon: Embark on an exciting dance adventure at AND Dance Sousse, a vibrant dance club. Immerse yourself in the rhythm and showcase your moves in a lively and energetic atmosphere.
+Evening: Head to Giornale, a charming café known for its exceptional coffee, tea, and cozy ambiance. Relax and unwind over a cup of your favorite beverage.
+Night: Conclude your day with a visit to Gambino's Pizza, a local pizzeria offering a variety of pizzas and Italian dishes. Relish the authentic flavors and enjoy a memorable dining experience.</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE LAADHARI is a cafe located in akouda with an impressive rating of 4.1 based on 51 reviews. The cafe offers various quad specialties, a popular item among its customers. Geographically, CAFE LAADHARI is situated at the coordinates (35.8736484, 10.5695322), making it easily accessible to visitors in the area.
+Giornale is a café located in Av. de la Republique, Akouda. It is a popular spot for coffee, tea, and snacks, and offers a cozy atmosphere to relax and enjoy a cup of coffee. Giornale has a rating of 5.0 on Google reviews, and is open from 5am to 1am.
+**Ilcapo: A 24/7 Oasis in Akouda**
+Discover Ilcapo, a vibrant cafeteria offering a 24/7 sanctuary in Akouda. Located at VHF8+2P3, Ilcapo boasts a cozy atmosphere and an extensive menu of delectable treats. With a 5-star rating and glowing reviews praising its exceptional service and appetizing offerings, this cafe has become a beloved destination for locals and visitors alike.
+Fast food Mexico is a restaurant located in Akouda, Tunisia, at coordinates (35.8736484, 10.5695322). It offers a wide variety of Mexican dishes in a casual and friendly setting. The restaurant is open from 09:00-00:00 from Monday to Saturday and is closed on Sundays. Fast food Mexico has received an average rating of 4.0 based on 2 reviews on Google.
+Municipality of Akouda is located in Akouda, Tunisia. It is an administrative municipal building that provides local government services to the community. The municipality's office hours are from 8:00 AM to 5:00 PM during weekdays, and it is closed on Sundays.
+In the heart of Akouda, Koussour Gharnata offers a luxurious hotel experience. With impeccable ratings, the hotel boasts a prime location with convenient access to local attractions. Whether you're seeking relaxation or adventure, Koussour Gharnata invites you to explore its exceptional amenities and the vibrant city that surrounds it.
+Located in Akouda, AND Dance Sousse is a dance club offering a vibrant atmosphere for dance enthusiasts. With a focus on dance and entertainment, the club provides a platform for individuals to showcase their moves and enjoy the rhythm. Its proximity to the city center at longitude 10.637853127292 and latitude 35.820659199508 makes it easily accessible for patrons seeking a lively and immersive dance experience.
+Gambino's pizza is a pizzeria located in akouda. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at the coordinates (39.561562, -95.121066).
+Akouda is a gas station located in Akouda, at the coordinates (35.866141102648, 10.573438518111). It offers various services and products related to fueling and maintaining vehicles. The gas station is open from Monday to Saturday from 8:00 AM to 5:00 PM and is closed on Sundays.
+Station de Transport Akouda - Chott Mariem, found in Akouda, Tunisia, is a taxi station that provides reliable transportation services. It is conveniently located at the coordinates (35.8691, 10.5653), making it easily accessible for locals and visitors alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -851,14 +942,55 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>If you're in akouda and looking for something fun to do, check out Time Cafe located at VHJ8+3VP Time Cafe, Rue 2 Mars, Akouda. 
-This top-rated destination is the perfect spot for Cafe lovers. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 06:00-00:00, but closed on none. To get there, use these GPS coordinates: 35.8736484, 10.5695322. For more details, visit their website at or call them at.</t>
+          <t>Time Cafe is a cafe located in Akouda, Tunisia, at coordinates (35.8736484, 10.5695322). It offers a wide range of services, including coffee, tea, and other beverages, as well as food items. The cafe is open from 6 AM to midnight, and it is a popular spot for locals and tourists alike.</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Cafe destination with extended hours in Akouda?</t>
+          <t>Day Plan:
+Morning: Exploring the historic Municipality of Akouda
+Mid-Morning: Trying local cuisine at Be One Food
+Midday: Visiting the luxurious Koussour Gharnata hotel
+Afternoon: Enjoying scenic views at Giornale cafe
+Evening: Experiencing cultural immersion at Ilcapo cafe
+Night: Participating in a dance session at AND Dance Sousse</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Hssine Khlaf is a cafe located at Av. de la Republique, Akouda. This cafe has a rating of 4.5 stars.
+Giornale is a café located in Av. de la Republique, Akouda. It is a popular spot for coffee, tea, and snacks, and offers a cozy atmosphere to relax and enjoy a cup of coffee. Giornale has a rating of 5.0 on Google reviews, and is open from 5am to 1am.
+Ilcapo is a popular cafe located in Akouda, Tunisia, with a 5-star rating based on 5 reviews. The cafe is open 24 hours a day and is known for its cozy atmosphere and delicious food. The cafe is located at the coordinates (35.8736484, 10.5695322) and offers a variety of food and drinks, including coffee, tea, pastries, and sandwiches.
+Be One Food is a restaurant located in Akouda (coordinates: 35.8988738, 10.5505777), open from 8:00 AM to midnight. It has received rave reviews, earning a rating of 5.0. Despite the lack of information about the menu, this establishment is highly recommended and worth exploring for its culinary delights.
+Municipality of Akouda is located in Akouda, Tunisia. It is an administrative municipal building that provides local government services to the community. The municipality's office hours are from 8:00 AM to 5:00 PM during weekdays, and it is closed on Sundays.
+In the heart of Akouda, Koussour Gharnata offers a luxurious hotel experience. With impeccable ratings, the hotel boasts a prime location with convenient access to local attractions. Whether you're seeking relaxation or adventure, Koussour Gharnata invites you to explore its exceptional amenities and the vibrant city that surrounds it.
+Located in Akouda, AND Dance Sousse is a dance club offering a vibrant atmosphere for dance enthusiasts. With a focus on dance and entertainment, the club provides a platform for individuals to showcase their moves and enjoy the rhythm. Its proximity to the city center at longitude 10.637853127292 and latitude 35.820659199508 makes it easily accessible for patrons seeking a lively and immersive dance experience.
+Gambino's pizza is a pizzeria located in akouda. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at the coordinates (39.561562, -95.121066).
+Station Services OLA Energy is a petrol station located in Akouda, Tunisia, at the coordinates (35.8988738, 10.5505777). Open 24 hours a day, the station offers a range of services to motorists, including fuel, lubricants, and car washes. With a rating of 4.5 out of 5 based on 14 reviews, the station is highly regarded by its customers for its friendly service and convenient location.
+Station de Transport Akouda - Chott Mariem is a taxi station located in Akouda, Tunisia. It offers transportation services to and from the city and surrounding areas, and is a convenient option for travelers and locals alike. The station is located at VH8C+HCH Station de Transport Akouda - Chott Mariem, Akouda, and has received a rating of 3.3 based on 3 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -962,12 +1094,56 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>If you're in akouda and looking for a top-rated Salon de the, check out Giornale located at VH88+73F Av. de la Republique. This must-visit spot offers a 5.0 rating and is open from 05:00-01:00. To get there, use these GPS coordinates: (35.865962839867, 10.571616025297). For more details, visit their Facebook page at https://www.facebook.com/giornalecafe or call them at 53 563 050.</t>
+          <t>Giornale is a café located in Av. de la Republique, Akouda. It is a popular spot for coffee, tea, and snacks, and offers a cozy atmosphere to relax and enjoy a cup of coffee. Giornale has a rating of 5.0 on Google reviews, and is open from 5am to 1am.</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>Where in Akouda can you visit a highly-rated Salon de the with convenient operating hours, located at VH88+73F Av. de la Republique?</t>
+          <t>Day Plan:
+Morning: Explore the charming **Café République (Sala7)**, indulge in a warm cup of coffee or tea, and soak in the cozy atmosphere.
+Mid-Morning: Embark on a guided tour of the **Municipality of Akouda**, gaining insights into local government services and the community's history.
+Midday: Savor the culinary delights of Akouda at **Rapido food**, a highly-rated restaurant renowned for its delectable offerings.
+Afternoon: Head to **Ilcapo: A 24/7 Oasis in Akouda** for a delightful afternoon treat. Enjoy the vibrant atmosphere and indulge in their extensive menu of delectable treats.
+Evening: Immerse yourself in the rhythmic beats of dance at **AND Dance Sousse**. Showcase your moves or simply enjoy watching the dance enthusiasts perform.
+Night: Wind down the day at the luxurious **Koussour Gharnata hotel**, nestled in the heart of Akouda. Unwind with a relaxing stay and soak in the exceptional amenities.</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Café République (Sala7)** is a charming café located at VH89+95J, Av. Habib Bourguiba, Akouda 4022, Tunisia. It offers a cozy atmosphere and a warm ambiance, making it the perfect place to relax and enjoy a cup of coffee or tea. The café is open daily from 6:00 AM to 12:00 AM, and is closed on major holidays. It serves a variety of food and drinks.
+Giornale is a café located in Av. de la Republique, Akouda. It is a popular spot for coffee, tea, and snacks, and offers a cozy atmosphere to relax and enjoy a cup of coffee. Giornale has a rating of 5.0 on Google reviews, and is open from 5am to 1am.
+**Ilcapo: A 24/7 Oasis in Akouda**
+Discover Ilcapo, a vibrant cafeteria offering a 24/7 sanctuary in Akouda. Located at VHF8+2P3, Ilcapo boasts a cozy atmosphere and an extensive menu of delectable treats. With a 5-star rating and glowing reviews praising its exceptional service and appetizing offerings, this cafe has become a beloved destination for locals and visitors alike.
+Discover Rapido food, Akouda's restaurant with a stellar 5.0 rating. Experience culinary delights in a convenient location, just a call away at 54 702 701. Using the website link, explore their offerings and plan your next dining experience.
+Municipality of Akouda is located in Akouda, Tunisia. It is an administrative municipal building that provides local government services to the community. The municipality's office hours are from 8:00 AM to 5:00 PM during weekdays, and it is closed on Sundays.
+In the heart of Akouda, Koussour Gharnata offers a luxurious hotel experience. With impeccable ratings, the hotel boasts a prime location with convenient access to local attractions. Whether you're seeking relaxation or adventure, Koussour Gharnata invites you to explore its exceptional amenities and the vibrant city that surrounds it.
+Located in Akouda, AND Dance Sousse is a dance club offering a vibrant atmosphere for dance enthusiasts. With a focus on dance and entertainment, the club provides a platform for individuals to showcase their moves and enjoy the rhythm. Its proximity to the city center at longitude 10.637853127292 and latitude 35.820659199508 makes it easily accessible for patrons seeking a lively and immersive dance experience.
+Gambino's pizza is a pizzeria located in akouda. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at the coordinates (39.561562, -95.121066).
+Station Services OLA Energy is a petrol station located in Akouda, Tunisia, at the coordinates (35.8988738, 10.5505777). Open 24 hours a day, the station offers a range of services to motorists, including fuel, lubricants, and car washes. With a rating of 4.5 out of 5 based on 14 reviews, the station is highly regarded by its customers for its friendly service and convenient location.
+Station de Transport Akouda - Chott Mariem is a taxi station located in Akouda, Tunisia. It offers transportation services to and from the city and surrounding areas, and is a convenient option for travelers and locals alike. The station is located at VH8C+HCH Station de Transport Akouda - Chott Mariem, Akouda, and has received a rating of 3.3 based on 3 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1063,12 +1239,56 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>If you're in Akouda and looking for a great place to grab a bite, try Prima Cafe at VH9J+8MJ. This top-rated cafe is perfect for coffee lovers and offers a range of beverages to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 05:00-00:00. To get there, use these GPS coordinates: 35.8736484, 10.5695322. For more details, access their website: https://www.google.com/maps/place/Prima+Cafe/data=!4m7!3m6!1s0x12fd8a31754b3aeb:0x3c2a4896b0b7892c!8m2!3d35.8683406!4d10.5816542!16s%2Fg%2F11f0kq9bj5!19sChIJ6zpLdTGK_RIRLIm3sJZIKjw?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Prima Café is a 4-star café located in Akouda, Tunisia. Open from 5 AM until midnight, it offers a warm and inviting space for customers to enjoy a variety of delicious food and drinks. Located at coordinates (35.8736484, 10.5695322), this café is easily accessible and offers a great place to relax and unwind.</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe with a wide selection of beverages, located at specific GPS coordinates in Akouda?</t>
+          <t>Day Plan:
+Morning: Explore the Municipality of Akouda to learn about local government and services.
+Mid-Morning: Grab a coffee and pastries at Cafe Lynda.
+Midday: Visit Koussour Gharnata for lunch and enjoy the luxurious hotel ambiance.
+Afternoon: Engage in some dance at AND Dance Sousse and immerse yourself in the lively atmosphere.
+Evening: Try local cuisine at Rapido food and satisfy your taste buds with Tunisian flavors.
+Night: Relax at Ilcapo and indulge in their delectable treats while enjoying a cozy atmosphere.</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Lynda is a cafe located in Akouda, Tunisia. It offers a variety of coffee drinks, as well as pastries and other snacks. The cafe is located at the coordinates (35.8988738, 10.5505777).
+Giornale is a café located in Av. de la Republique, Akouda. It is a popular spot for coffee, tea, and snacks, and offers a cozy atmosphere to relax and enjoy a cup of coffee. Giornale has a rating of 5.0 on Google reviews, and is open from 5am to 1am.
+**Ilcapo: A 24/7 Oasis in Akouda**
+Discover Ilcapo, a vibrant cafeteria offering a 24/7 sanctuary in Akouda. Located at VHF8+2P3, Ilcapo boasts a cozy atmosphere and an extensive menu of delectable treats. With a 5-star rating and glowing reviews praising its exceptional service and appetizing offerings, this cafe has become a beloved destination for locals and visitors alike.
+Discover Rapido food, Akouda's restaurant with a stellar 5.0 rating. Experience culinary delights in a convenient location, just a call away at 54 702 701. Using the website link, explore their offerings and plan your next dining experience.
+Municipality of Akouda is located in Akouda, Tunisia. It is an administrative municipal building that provides local government services to the community. The municipality's office hours are from 8:00 AM to 5:00 PM during weekdays, and it is closed on Sundays.
+In the heart of Akouda, Koussour Gharnata offers a luxurious hotel experience. With impeccable ratings, the hotel boasts a prime location with convenient access to local attractions. Whether you're seeking relaxation or adventure, Koussour Gharnata invites you to explore its exceptional amenities and the vibrant city that surrounds it.
+Located in Akouda, AND Dance Sousse is a dance club offering a vibrant atmosphere for dance enthusiasts. With a focus on dance and entertainment, the club provides a platform for individuals to showcase their moves and enjoy the rhythm. Its proximity to the city center at longitude 10.637853127292 and latitude 35.820659199508 makes it easily accessible for patrons seeking a lively and immersive dance experience.
+Gambino's pizza is a pizzeria located in akouda. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at the coordinates (39.561562, -95.121066).
+Akouda is a gas station located in Akouda, at the coordinates (35.866141102648, 10.573438518111). It offers various services and products related to fueling and maintaining vehicles. The gas station is open from Monday to Saturday from 8:00 AM to 5:00 PM and is closed on Sundays.
+Station de Transport Akouda - Chott Mariem, found in Akouda, Tunisia, is a taxi station that provides reliable transportation services. It is conveniently located at the coordinates (35.8691, 10.5653), making it easily accessible for locals and visitors alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1164,12 +1384,55 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>If you're in Akouda and looking for a cozy and delicious café experience, visit Djo Cafe located at VH8G+MMG. As a top-rated destination for café lovers, it offers a delightful range of beverages and pastries to satisfy your cravings. With an impressive rating of 4.9, it's a must-visit spot. It welcomes you from 07:00 to 23:00 during the week. For more information or reservations, visit their website or contact them directly.</t>
+          <t>Nestled in Akouda on the coordinates (35.8736484, 10.5695322), Djo Cafe has garnered an impressive 4.9-star rating from 9 reviews. Open from 7 am to 11 pm during the week, this cozy cafe specializes in providing a welcoming ambiance for its patrons.</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated café with a cozy ambiance and delectable treats in Akouda?</t>
+          <t>Day Plan:
+Morning: Explore the picturesque Koussour Gharnata hotel and enjoy the luxurious ambiance.
+Mid-Morning: Visit the Municipality of Akouda to delve into local administrative services.
+Midday: Indulge in the delectable cuisine and 5-star ambiance at Restaurant Qods.
+Afternoon: Experience the vibrant dance scene at AND Dance Sousse, surrounded by rhythm and energy.
+Evening: Relish the exquisite flavors of local cuisine at Giornale, known for its cozy atmosphere and delicious coffee.
+Night: Explore Akouda and soak in the local culture by visiting the Giornale café, renowned for its warm ambiance and authentic coffee beverages.</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>Given these locations:
+VIP SIDE COFFEE is a highly-rated cafe located in Akouda, Tunisia at coordinates (35.866141102648, 10.573438518111). Currently holding a 5.0 rating based on 3 reviews, this cafe offers a cozy atmosphere and delicious coffee beverages.
+Giornale is a café located in Av. de la Republique, Akouda. It is a popular spot for coffee, tea, and snacks, and offers a cozy atmosphere to relax and enjoy a cup of coffee. Giornale has a rating of 5.0 on Google reviews, and is open from 5am to 1am.
+Ilcapo is a popular cafe located in Akouda, Tunisia, with a 5-star rating based on 5 reviews. The cafe is open 24 hours a day and is known for its cozy atmosphere and delicious food. The cafe is located at the coordinates (35.8736484, 10.5695322) and offers a variety of food and drinks, including coffee, tea, pastries, and sandwiches.
+Restaurant Qods is a highly-rated dining establishment located in Akouda, Tunisia. Offering a diverse menu of culinary delights, this restaurant has consistently garnered 5-star reviews from patrons. Situated at coordinates (35.8736484, 10.5695322), Restaurant Qods is a convenient destination for those seeking a satisfying dining experience in the area.
+Municipality of Akouda is located in Akouda, Tunisia. It is an administrative municipal building that provides local government services to the community. The municipality's office hours are from 8:00 AM to 5:00 PM during weekdays, and it is closed on Sundays.
+In the heart of Akouda, Koussour Gharnata offers a luxurious hotel experience. With impeccable ratings, the hotel boasts a prime location with convenient access to local attractions. Whether you're seeking relaxation or adventure, Koussour Gharnata invites you to explore its exceptional amenities and the vibrant city that surrounds it.
+Located in Akouda, AND Dance Sousse is a dance club offering a vibrant atmosphere for dance enthusiasts. With a focus on dance and entertainment, the club provides a platform for individuals to showcase their moves and enjoy the rhythm. Its proximity to the city center at longitude 10.637853127292 and latitude 35.820659199508 makes it easily accessible for patrons seeking a lively and immersive dance experience.
+Gambino's pizza is a pizzeria located in akouda. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at the coordinates (39.561562, -95.121066).
+Akouda is a gas station located in Akouda, at the coordinates (35.866141102648, 10.573438518111). It offers various services and products related to fueling and maintaining vehicles. The gas station is open from Monday to Saturday from 8:00 AM to 5:00 PM and is closed on Sundays.
+Station de Transport Akouda - Chott Mariem, found in Akouda, Tunisia, is a taxi station that provides reliable transportation services. It is conveniently located at the coordinates (35.8691, 10.5653), making it easily accessible for locals and visitors alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1265,14 +1528,55 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>If you're in akouda and looking for something fun to do, check out Salon De The Le Rendez vous located at VHFJ+RFP, P1, Akouda. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 36.742836, 10.1953352. For more details, visit their website at  or call them at .</t>
+          <t>Nestled in the heart of Akouda, Salon De The Le Rendez vous warmly welcomes you to enjoy a relaxing break. Situated at coordinates (36.742836, 10.1953352), it offers a wide range of cafe options to satisfy your cravings. With a remarkable rating of 4.3 and 9 reviews, you can expect a delightful experience. Open from 6:00 AM to midnight every day, it's the perfect spot for a morning coffee or a late-night caffeine fix.</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>Where in Akouda can you visit a top-rated destination with a wide selection of Cafe, making it a must-visit spot for Cafe enthusiasts with a high rating of 4.3?</t>
+          <t>Day Plan:
+Morning: Explore the vibrant Municipality of Akouda, the administrative center of the Akouda district.
+Mid-Morning: Visit the highly-rated VIP SIDE COFFEE for a cozy ambiance and delicious coffee beverages.
+Midday: Indulge in a delightful lunch at Be One Food, offering a wide range of dishes round-the-clock.
+Afternoon: Relax with a refreshing swim or sunbathing at Koussour Gharnata's luxurious hotel facility.
+Evening: Take a guided tour of AND Dance Sousse, a dance club known for its lively atmosphere and rhythm.
+Night: Immerse yourself in the local cuisine at Gambino's Pizza, savoring the authentic flavors of Akouda.</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>Given these locations:
+VIP SIDE COFFEE is a highly-rated cafe located in Akouda, Tunisia at coordinates (35.866141102648, 10.573438518111). Currently holding a 5.0 rating based on 3 reviews, this cafe offers a cozy atmosphere and delicious coffee beverages.
+Giornale is a café located in Av. de la Republique, Akouda. It is a popular spot for coffee, tea, and snacks, and offers a cozy atmosphere to relax and enjoy a cup of coffee. Giornale has a rating of 5.0 on Google reviews, and is open from 5am to 1am.
+Ilcapo is a popular cafe located in Akouda, Tunisia, with a 5-star rating based on 5 reviews. The cafe is open 24 hours a day and is known for its cozy atmosphere and delicious food. The cafe is located at the coordinates (35.8736484, 10.5695322) and offers a variety of food and drinks, including coffee, tea, pastries, and sandwiches.
+Be One Food, a restaurant located in the Akouda district, is open 24 hours a day and offers a wide range of dishes. With a rating of 5.0 based on 3 reviews, it is a popular destination for diners looking for a delicious meal at any time of day. The restaurant's exact coordinates are (35.8736484, 10.5695322).
+Municipality of Akouda is located in Akouda, Tunisia. It is an administrative municipal building that provides local government services to the community. The municipality's office hours are from 8:00 AM to 5:00 PM during weekdays, and it is closed on Sundays.
+In the heart of Akouda, Koussour Gharnata offers a luxurious hotel experience. With impeccable ratings, the hotel boasts a prime location with convenient access to local attractions. Whether you're seeking relaxation or adventure, Koussour Gharnata invites you to explore its exceptional amenities and the vibrant city that surrounds it.
+Located in Akouda, AND Dance Sousse is a dance club offering a vibrant atmosphere for dance enthusiasts. With a focus on dance and entertainment, the club provides a platform for individuals to showcase their moves and enjoy the rhythm. Its proximity to the city center at longitude 10.637853127292 and latitude 35.820659199508 makes it easily accessible for patrons seeking a lively and immersive dance experience.
+Gambino's pizza is a pizzeria located in akouda. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at the coordinates (39.561562, -95.121066).
+Akouda is a gas station located in Akouda, at the coordinates (35.866141102648, 10.573438518111). It offers various services and products related to fueling and maintaining vehicles. The gas station is open from Monday to Saturday from 8:00 AM to 5:00 PM and is closed on Sundays.
+Station de Transport Akouda - Chott Mariem is a taxi station located in Akouda, Tunisia. It offers transportation services to and from the city and surrounding areas, and is a convenient option for travelers and locals alike. The station is located at VH8C+HCH Station de Transport Akouda - Chott Mariem, Akouda, and has received a rating of 3.3 based on 3 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1372,14 +1676,57 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>If you're in akouda and looking for a great Cafeteria, check out Ilcapo at VHF8+2P3. 
-This top-rated destination is perfect for Cafeteria lovers and offers a range of Cafe options to choose from. 
-With 5 reviews and a rating of 5.0, it's a must-visit spot. It's open 24 hours a day, so you can visit whenever you like. To get there, use these GPS coordinates: 35.8736484, 10.5695322. For more details, visit their website at https://www.google.com/maps/place/Ilcapo/data=!4m7!3m6!1s0x12fd8b450c37ac53:0x8665d9547c29f0aa!8m2!3d35.8725067!4d10.5667982!16s%2Fg%2F11ry6y5x75!19sChIJU6w3DEWL_RIRqvApfFTZZYY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 52 529 652.</t>
+          <t>**Ilcapo: A 24/7 Oasis in Akouda**
+Discover Ilcapo, a vibrant cafeteria offering a 24/7 sanctuary in Akouda. Located at VHF8+2P3, Ilcapo boasts a cozy atmosphere and an extensive menu of delectable treats. With a 5-star rating and glowing reviews praising its exceptional service and appetizing offerings, this cafe has become a beloved destination for locals and visitors alike.</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Cafeteria with a wide selection of Cafe options, located in Akouda and open 24 hours a day?</t>
+          <t>Day Plan:
+Morning: Explore the local culture and history at the Municipality of Akouda.
+Mid-Morning: Enjoy a delicious breakfast and coffee at Cafeteria Le Municipalite, a highly-rated cafe known for its friendly atmosphere.
+Midday: Try the local cuisine at Be One Food, a restaurant with rave reviews and a 5.0 rating on Google.
+Afternoon: Relax and rejuvenate with a luxurious spa treatment at Koussour Gharnata, a hotel with impeccable ratings and exceptional amenities.
+Evening: Experience the vibrant nightlife at AND Dance Sousse, a dance club that offers a platform for dance enthusiasts to showcase their moves.
+Night: End the day with a delectable pizza dinner at Gambino's pizza, a pizzeria known for its authentic Italian flavors.</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafeteria Le Municipalite is a highly-rated cafe located in Akouda (33.80033, -6.80036). With a rating of 5.0 and 1 review, it stands out as a popular spot for coffee enthusiasts. Despite the lack of information about its offerings, the cafe has garnered positive feedback.
+Giornale is a café located in Av. de la Republique, Akouda. It is a popular spot for coffee, tea, and snacks, and offers a cozy atmosphere to relax and enjoy a cup of coffee. Giornale has a rating of 5.0 on Google reviews, and is open from 5am to 1am.
+**Ilcapo: A 24/7 Oasis in Akouda**
+Discover Ilcapo, a vibrant cafeteria offering a 24/7 sanctuary in Akouda. Located at VHF8+2P3, Ilcapo boasts a cozy atmosphere and an extensive menu of delectable treats. With a 5-star rating and glowing reviews praising its exceptional service and appetizing offerings, this cafe has become a beloved destination for locals and visitors alike.
+Be One Food is a restaurant located in Akouda (coordinates: 35.8988738, 10.5505777), open from 8:00 AM to midnight. It has received rave reviews, earning a rating of 5.0. Despite the lack of information about the menu, this establishment is highly recommended and worth exploring for its culinary delights.
+Municipality of Akouda is located in Akouda, Tunisia. It is an administrative municipal building that provides local government services to the community. The municipality's office hours are from 8:00 AM to 5:00 PM during weekdays, and it is closed on Sundays.
+In the heart of Akouda, Koussour Gharnata offers a luxurious hotel experience. With impeccable ratings, the hotel boasts a prime location with convenient access to local attractions. Whether you're seeking relaxation or adventure, Koussour Gharnata invites you to explore its exceptional amenities and the vibrant city that surrounds it.
+Located in Akouda, AND Dance Sousse is a dance club offering a vibrant atmosphere for dance enthusiasts. With a focus on dance and entertainment, the club provides a platform for individuals to showcase their moves and enjoy the rhythm. Its proximity to the city center at longitude 10.637853127292 and latitude 35.820659199508 makes it easily accessible for patrons seeking a lively and immersive dance experience.
+Gambino's pizza is a pizzeria located in akouda. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at the coordinates (39.561562, -95.121066).
+Akouda is a gas station located in Akouda, at the coordinates (35.866141102648, 10.573438518111). It offers various services and products related to fueling and maintaining vehicles. The gas station is open from Monday to Saturday from 8:00 AM to 5:00 PM and is closed on Sundays.
+Station de Transport Akouda - Chott Mariem, found in Akouda, Tunisia, is a taxi station that provides reliable transportation services. It is conveniently located at the coordinates (35.8691, 10.5653), making it easily accessible for locals and visitors alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1479,12 +1826,55 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>If you're in Akouda and looking for a cafe, check out Cafe La Sirene located at WH7F+QMX Cafe La Sirene, Akouda. This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 4.8, it's a must-visit spot. It's open 24 hours a day, but closed on unspecified days. To get there, use these GPS coordinates: 35.8736484, 10.5695322. For more details, call them at 73 328 049.</t>
+          <t>Cafe La Sirene is a cafe located in Akouda, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is located at WH7F+QMX and can be contacted by phone at 73 328 049.</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated cafe open 24 hours a day, located in Akouda?</t>
+          <t>Day Plan:
+Morning: Explore the architectural beauty of Koussour Gharnata.
+Mid-Morning: Savor traditional Tunisian dishes at Restaurant Qods.
+Midday: Immerse in the local culture at Municipality of Akouda.
+Afternoon: Dance the day away at AND Dance Sousse.
+Evening: Delight in the scenic views at Akouda gas station.
+Night: Relax and unwind at Ilcapo for a cozy ambiance and delicious food.</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Prima Café is a 4-star café located in Akouda, Tunisia. Open from 5 AM until midnight, it offers a warm and inviting space for customers to enjoy a variety of delicious food and drinks. Located at coordinates (35.8736484, 10.5695322), this café is easily accessible and offers a great place to relax and unwind.
+Giornale is a café located in Av. de la Republique, Akouda. It is a popular spot for coffee, tea, and snacks, and offers a cozy atmosphere to relax and enjoy a cup of coffee. Giornale has a rating of 5.0 on Google reviews, and is open from 5am to 1am.
+Ilcapo is a popular cafe located in Akouda, Tunisia, with a 5-star rating based on 5 reviews. The cafe is open 24 hours a day and is known for its cozy atmosphere and delicious food. The cafe is located at the coordinates (35.8736484, 10.5695322) and offers a variety of food and drinks, including coffee, tea, pastries, and sandwiches.
+Restaurant Qods is a highly-rated restaurant located in Akouda, Tunisia. It's known for its excellent cuisine and friendly service. The restaurant serves a variety of dishes, including traditional Tunisian dishes and international cuisine. Restaurant Qods is open daily from 8:00 AM to 12:00 AM and is conveniently located near the city center.
+Municipality of Akouda is located in Akouda, Tunisia. It is an administrative municipal building that provides local government services to the community. The municipality's office hours are from 8:00 AM to 5:00 PM during weekdays, and it is closed on Sundays.
+In the heart of Akouda, Koussour Gharnata offers a luxurious hotel experience. With impeccable ratings, the hotel boasts a prime location with convenient access to local attractions. Whether you're seeking relaxation or adventure, Koussour Gharnata invites you to explore its exceptional amenities and the vibrant city that surrounds it.
+Located in Akouda, AND Dance Sousse is a dance club offering a vibrant atmosphere for dance enthusiasts. With a focus on dance and entertainment, the club provides a platform for individuals to showcase their moves and enjoy the rhythm. Its proximity to the city center at longitude 10.637853127292 and latitude 35.820659199508 makes it easily accessible for patrons seeking a lively and immersive dance experience.
+Gambino's pizza is a pizzeria located in akouda. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at the coordinates (39.561562, -95.121066).
+Akouda is a gas station located in Akouda, at the coordinates (35.866141102648, 10.573438518111). It offers various services and products related to fueling and maintaining vehicles. The gas station is open from Monday to Saturday from 8:00 AM to 5:00 PM and is closed on Sundays.
+Station de Transport Akouda - Chott Mariem is a taxi station located in Akouda, Tunisia. It offers transportation services to and from the city and surrounding areas, and is a convenient option for travelers and locals alike. The station is located at VH8C+HCH Station de Transport Akouda - Chott Mariem, Akouda, and has received a rating of 3.3 based on 3 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1584,12 +1974,55 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>If you're in akouda and looking for something fun to do, check out Restaurant Qods located at VH8C+9F8 Restaurant Qods, C48, Akouda. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-00:00, but closed on None. To get there, use these GPS coordinates: 35.8736484, 10.5695322. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Qods/data=!4m7!3m6!1s0x12fd8b4721b7347d:0x9cda697b61d990e8!8m2!3d35.8659117!4d10.5712033!16s%2Fg%2F11gnsrmswb!19sChIJfTS3IUeL_RIR6JDZYXtp2pw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 92 914 120.</t>
+          <t>Restaurant Qods is a highly-rated dining establishment located in Akouda, Tunisia. Offering a diverse menu of culinary delights, this restaurant has consistently garnered 5-star reviews from patrons. Situated at coordinates (35.8736484, 10.5695322), Restaurant Qods is a convenient destination for those seeking a satisfying dining experience in the area.</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>Where can I find a highly-rated restaurant offering a variety of options for food lovers in Akouda, open daily from 08:00-00:00?</t>
+          <t>Day Plan:
+Morning: Exploring the historic Municipality of Akouda
+Mid-Morning: Enjoying local cuisine at Ben Youssef Grills
+Midday: Relaxing with a coffee and Tunisian sweets at Cafe Hssine Khlaf
+Afternoon: Shopping for souvenirs at the Akouda Market
+Evening: Trying traditional Tunisian pizza at Gambino's Pizzeria
+Night: Engaging in dance and entertainment at AND Dance Sousse</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Hssine Khlaf is a cafe located at Av. de la Republique, Akouda. This cafe has a rating of 4.5 stars.
+Giornale is a café located in Av. de la Republique, Akouda. It is a popular spot for coffee, tea, and snacks, and offers a cozy atmosphere to relax and enjoy a cup of coffee. Giornale has a rating of 5.0 on Google reviews, and is open from 5am to 1am.
+Ilcapo is a popular cafe located in Akouda, Tunisia, with a 5-star rating based on 5 reviews. The cafe is open 24 hours a day and is known for its cozy atmosphere and delicious food. The cafe is located at the coordinates (35.8736484, 10.5695322) and offers a variety of food and drinks, including coffee, tea, pastries, and sandwiches.
+Ben Youssef Grills is a restaurant located in Akouda, Tunisia. It offers a variety of dishes, including grilled meats, seafood, and vegetarian options. The restaurant is open for lunch and dinner, and it has a rating of 4.4 out of 5 stars on Google.
+Municipality of Akouda is located in Akouda, Tunisia. It is an administrative municipal building that provides local government services to the community. The municipality's office hours are from 8:00 AM to 5:00 PM during weekdays, and it is closed on Sundays.
+In the heart of Akouda, Koussour Gharnata offers a luxurious hotel experience. With impeccable ratings, the hotel boasts a prime location with convenient access to local attractions. Whether you're seeking relaxation or adventure, Koussour Gharnata invites you to explore its exceptional amenities and the vibrant city that surrounds it.
+Located in Akouda, AND Dance Sousse is a dance club offering a vibrant atmosphere for dance enthusiasts. With a focus on dance and entertainment, the club provides a platform for individuals to showcase their moves and enjoy the rhythm. Its proximity to the city center at longitude 10.637853127292 and latitude 35.820659199508 makes it easily accessible for patrons seeking a lively and immersive dance experience.
+Gambino's pizza is a pizzeria located in akouda. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at the coordinates (39.561562, -95.121066).
+Akouda is a gas station located in Akouda, at the coordinates (35.866141102648, 10.573438518111). It offers various services and products related to fueling and maintaining vehicles. The gas station is open from Monday to Saturday from 8:00 AM to 5:00 PM and is closed on Sundays.
+Station de Transport Akouda - Chott Mariem, found in Akouda, Tunisia, is a taxi station that provides reliable transportation services. It is conveniently located at the coordinates (35.8691, 10.5653), making it easily accessible for locals and visitors alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1685,12 +2118,56 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>If you're in akouda and looking for a top-rated Cafe, check out cafe republique (sala7) at VH89+95J cafe republique (sala7), Av. Habib Bourguiba, Akouda 4022. With a rating of 4.3, it's a must-visit spot. The Cafe is open daily from 06:00-00:00 and offers a range of categories to choose from. To get there, use these GPS coordinates: 35.869195948274, 10.566252716258. For more details, visit their website at https://www.google.com/maps/place/caf%C3%A9+r%C3%A9publique+%28sala7%29/data=!4m7!3m6!1s0x12fd8bc94137d4e9:0x7de7fbfd910783f7!8m2!3d35.8659618!4d10.5678917!16s%2Fg%2F11c60gfdtx!19sChIJ6dQ3QcmL_RIR94MHkf37530?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>**Café République (Sala7)** is a charming café located at VH89+95J, Av. Habib Bourguiba, Akouda 4022, Tunisia. It offers a cozy atmosphere and a warm ambiance, making it the perfect place to relax and enjoy a cup of coffee or tea. The café is open daily from 6:00 AM to 12:00 AM, and is closed on major holidays. It serves a variety of food and drinks.</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>Where in Akouda can you find a highly-rated Cafe with a rating of 4.3 and extended营业时间from 06:00-00:00?</t>
+          <t>Day Plan:
+Morning: Explore Koussour Gharnata, a luxurious hotel in the heart of Akouda.
+Mid-Morning: Visit Station de Transport Akouda - Chott Mariem, a conveniently located taxi station for transportation.
+Midday: Try local cuisine at Restaurant Qods, a highly-rated dining spot in Akouda.
+Afternoon: Relax with a comfortable seating area at Salon De The Le Rendez vous in Akouda.
+Evening: Enjoy the vibrant atmosphere at AND Dance Sousse, a dance club in Akouda.
+Night: Experience the 24/7 sanctuary of Ilcapo, a cafeteria in Akouda.</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Salon De The Le Rendez vous, located in Akouda (36.742836, 10.1953352), is a popular cafe with a warm ambiance. It offers a relaxing environment with its featured image of a comfortable seating area. With a 4.3-star rating based on 9 reviews, Salon De The Le Rendez vous is open daily from 6 AM to midnight. Come and experience the delight of this cafe for yourself!
+Giornale is a café located in Av. de la Republique, Akouda. It is a popular spot for coffee, tea, and snacks, and offers a cozy atmosphere to relax and enjoy a cup of coffee. Giornale has a rating of 5.0 on Google reviews, and is open from 5am to 1am.
+**Ilcapo: A 24/7 Oasis in Akouda**
+Discover Ilcapo, a vibrant cafeteria offering a 24/7 sanctuary in Akouda. Located at VHF8+2P3, Ilcapo boasts a cozy atmosphere and an extensive menu of delectable treats. With a 5-star rating and glowing reviews praising its exceptional service and appetizing offerings, this cafe has become a beloved destination for locals and visitors alike.
+Restaurant Qods is a highly-rated dining establishment located in Akouda, Tunisia. Offering a diverse menu of culinary delights, this restaurant has consistently garnered 5-star reviews from patrons. Situated at coordinates (35.8736484, 10.5695322), Restaurant Qods is a convenient destination for those seeking a satisfying dining experience in the area.
+Municipality of Akouda is located in Akouda, Tunisia. It is an administrative municipal building that provides local government services to the community. The municipality's office hours are from 8:00 AM to 5:00 PM during weekdays, and it is closed on Sundays.
+In the heart of Akouda, Koussour Gharnata offers a luxurious hotel experience. With impeccable ratings, the hotel boasts a prime location with convenient access to local attractions. Whether you're seeking relaxation or adventure, Koussour Gharnata invites you to explore its exceptional amenities and the vibrant city that surrounds it.
+Located in Akouda, AND Dance Sousse is a dance club offering a vibrant atmosphere for dance enthusiasts. With a focus on dance and entertainment, the club provides a platform for individuals to showcase their moves and enjoy the rhythm. Its proximity to the city center at longitude 10.637853127292 and latitude 35.820659199508 makes it easily accessible for patrons seeking a lively and immersive dance experience.
+Gambino's pizza is a pizzeria located in akouda. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at the coordinates (39.561562, -95.121066).
+Akouda is a gas station located in Akouda, at the coordinates (35.866141102648, 10.573438518111). It offers various services and products related to fueling and maintaining vehicles. The gas station is open from Monday to Saturday from 8:00 AM to 5:00 PM and is closed on Sundays.
+Station de Transport Akouda - Chott Mariem, found in Akouda, Tunisia, is a taxi station that provides reliable transportation services. It is conveniently located at the coordinates (35.8691, 10.5653), making it easily accessible for locals and visitors alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1786,12 +2263,56 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>If you're in Akouda and looking for a top-rated cafe, check out Cafe Hssine Khlaf located at VH89+86W Cafe Hssine Khlaf, Av. de la Republique, Akouda. This cafe with a rating of 4.5 is perfect for cafe lovers. To get there, use these GPS coordinates: 35.866141102648, 10.573438518111. For more details, visit their website at https://www.google.com/maps/place/Cafe+Hssine+Khlaf/data=!4m7!3m6!1s0x12fd8bc943999e5f:0x53ef91f5d27eff75!8m2!3d35.8658539!4d10.5680811!16s%2Fg%2F11c20swj6_!19sChIJX56ZQ8mL_RIRdf9-0vWR71M?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 99 525 252.</t>
+          <t>Cafe Hssine Khlaf is a cafe located at Av. de la Republique, Akouda. This cafe has a rating of 4.5 stars.</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>Where in Akouda can you find Cafe Hssine Khlaf, a highly-rated cafe with GPS coordinates of 35.866141102648, 10.573438518111?</t>
+          <t>Day Plan:
+Morning: Explore the bustling Municipality of Akouda, the administrative heart of the town.
+Mid-Morning: Visit the landmark Koussour Gharnata, a luxurious hotel offering a glimpse of cultural heritage.
+Midday: Indulge in local cuisine at Pomme de Pain Akouda, known for its delightful sandwiches, salads, and pastries.
+Afternoon: Engage in an outdoor adventure at AND Dance Sousse, a vibrant dance club with a lively atmosphere.
+Evening: Explore the scenic Station de Transport Akouda - Chott Mariem, a transportation hub with historical significance.
+Night: Head to Giornale for a cozy coffee experience, enjoying the warmth and ambiance of this popular café.</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Salon De The Le Rendez vous is a cafe in Akouda (Tunisia), located at VHFJ+RFP P1, Akouda. The cafe has a 4.3 rating based on 9 reviews. It opens from 6am to midnight and is closed on none.
+Giornale is a café located in Av. de la Republique, Akouda. It is a popular spot for coffee, tea, and snacks, and offers a cozy atmosphere to relax and enjoy a cup of coffee. Giornale has a rating of 5.0 on Google reviews, and is open from 5am to 1am.
+**Ilcapo: A 24/7 Oasis in Akouda**
+Discover Ilcapo, a vibrant cafeteria offering a 24/7 sanctuary in Akouda. Located at VHF8+2P3, Ilcapo boasts a cozy atmosphere and an extensive menu of delectable treats. With a 5-star rating and glowing reviews praising its exceptional service and appetizing offerings, this cafe has become a beloved destination for locals and visitors alike.
+Pomme de Pain Akouda is a restaurant located in Akouda, Tunisia. Its exact location is in Route Tunis Akouda Station Shell Sousse, 4022 and it can be contacted at 93 800 900. The restaurant is open 24 hours a day and offers a variety of dishes, including sandwiches, salads, and pastries. It is known for its delicious food and friendly service, and it has received positive reviews from customers.
+Municipality of Akouda is located in Akouda, Tunisia. It is an administrative municipal building that provides local government services to the community. The municipality's office hours are from 8:00 AM to 5:00 PM during weekdays, and it is closed on Sundays.
+In the heart of Akouda, Koussour Gharnata offers a luxurious hotel experience. With impeccable ratings, the hotel boasts a prime location with convenient access to local attractions. Whether you're seeking relaxation or adventure, Koussour Gharnata invites you to explore its exceptional amenities and the vibrant city that surrounds it.
+Located in Akouda, AND Dance Sousse is a dance club offering a vibrant atmosphere for dance enthusiasts. With a focus on dance and entertainment, the club provides a platform for individuals to showcase their moves and enjoy the rhythm. Its proximity to the city center at longitude 10.637853127292 and latitude 35.820659199508 makes it easily accessible for patrons seeking a lively and immersive dance experience.
+Gambino's pizza is a pizzeria located in akouda. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at the coordinates (39.561562, -95.121066).
+Station Services OLA Energy is a petrol station located in Akouda, Tunisia, at the coordinates (35.8988738, 10.5505777). Open 24 hours a day, the station offers a range of services to motorists, including fuel, lubricants, and car washes. With a rating of 4.5 out of 5 based on 14 reviews, the station is highly regarded by its customers for its friendly service and convenient location.
+Station de Transport Akouda - Chott Mariem, found in Akouda, Tunisia, is a taxi station that provides reliable transportation services. It is conveniently located at the coordinates (35.8691, 10.5653), making it easily accessible for locals and visitors alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1883,12 +2404,55 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>If you're in akouda and looking for something fun to do, check out VIP SIDE COFFEE located at VH89+86W VIP SIDE COFFEE, Av. de la Republique, Akouda. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.866141102648, 10.573438518111. For more details, visit their website at https://www.google.com/maps/place/VIP+SIDE+COFFEE/data=!4m7!3m6!1s0x12fd8b002acc917b:0xc1fd23bee6c60789!8m2!3d35.8658609!4d10.5681521!16s%2Fg%2F11vyx0w7b_!19sChIJe5HMKgCL_RIRiQfG5r4j_cE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>VIP SIDE COFFEE is a highly-rated cafe located in Akouda, Tunisia at coordinates (35.866141102648, 10.573438518111). Currently holding a 5.0 rating based on 3 reviews, this cafe offers a cozy atmosphere and delicious coffee beverages.</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>Where can you visit a highly-rated cafe in Akouda that boasts a 5.0 rating, perfect for those seeking a top-notch Cafe experience?</t>
+          <t>Day Plan:
+Morning: Explore the Koussour Gharnata Hotel for its luxurious ambiance and proximity to local attractions.
+Mid-Morning: Indulge in local cuisine at Pomme de Pain Akouda, known for its delicious food and friendly service.
+Midday: Visit the Station Services OLA Energy petrol station for convenient fuel and car wash services.
+Afternoon: Enjoy dance and entertainment at AND Dance Sousse, a vibrant club that offers a platform for dance enthusiasts.
+Evening: Take a guided tour of the Municipality of Akouda to gain insights into the local administration.
+Night: Relax with a cozy atmosphere and delicious food at Ilcapo, a popular cafe known for its 5-star rating and 24-hour service.</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Salon De The Le Rendez vous is a cafe in Akouda (Tunisia), located at VHFJ+RFP P1, Akouda. The cafe has a 4.3 rating based on 9 reviews. It opens from 6am to midnight and is closed on none.
+Giornale is a café located in Av. de la Republique, Akouda. It is a popular spot for coffee, tea, and snacks, and offers a cozy atmosphere to relax and enjoy a cup of coffee. Giornale has a rating of 5.0 on Google reviews, and is open from 5am to 1am.
+Ilcapo is a popular cafe located in Akouda, Tunisia, with a 5-star rating based on 5 reviews. The cafe is open 24 hours a day and is known for its cozy atmosphere and delicious food. The cafe is located at the coordinates (35.8736484, 10.5695322) and offers a variety of food and drinks, including coffee, tea, pastries, and sandwiches.
+Pomme de Pain Akouda is a restaurant located in Akouda, Tunisia. Its exact location is in Route Tunis Akouda Station Shell Sousse, 4022 and it can be contacted at 93 800 900. The restaurant is open 24 hours a day and offers a variety of dishes, including sandwiches, salads, and pastries. It is known for its delicious food and friendly service, and it has received positive reviews from customers.
+Municipality of Akouda is located in Akouda, Tunisia. It is an administrative municipal building that provides local government services to the community. The municipality's office hours are from 8:00 AM to 5:00 PM during weekdays, and it is closed on Sundays.
+In the heart of Akouda, Koussour Gharnata offers a luxurious hotel experience. With impeccable ratings, the hotel boasts a prime location with convenient access to local attractions. Whether you're seeking relaxation or adventure, Koussour Gharnata invites you to explore its exceptional amenities and the vibrant city that surrounds it.
+Located in Akouda, AND Dance Sousse is a dance club offering a vibrant atmosphere for dance enthusiasts. With a focus on dance and entertainment, the club provides a platform for individuals to showcase their moves and enjoy the rhythm. Its proximity to the city center at longitude 10.637853127292 and latitude 35.820659199508 makes it easily accessible for patrons seeking a lively and immersive dance experience.
+Gambino's pizza is a pizzeria located in akouda. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at the coordinates (39.561562, -95.121066).
+Station Services OLA Energy is a petrol station located in Akouda, Tunisia, at the coordinates (35.8988738, 10.5505777). Open 24 hours a day, the station offers a range of services to motorists, including fuel, lubricants, and car washes. With a rating of 4.5 out of 5 based on 14 reviews, the station is highly regarded by its customers for its friendly service and convenient location.
+Station de Transport Akouda - Chott Mariem, found in Akouda, Tunisia, is a taxi station that provides reliable transportation services. It is conveniently located at the coordinates (35.8691, 10.5653), making it easily accessible for locals and visitors alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1976,12 +2540,56 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>If you're in Akouda and looking for a great Cafe, check out Express located at Express, Akouda. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 35.8736484, 10.5695322. For more details, visit their link at https://www.google.com/maps/place/Express/data=!4m7!3m6!1s0x12fd899187759c89:0xaa035a6869890776!8m2!3d35.9022729!4d10.5435681!16s%2Fg%2F11rclf3z59!19sChIJiZx1h5GJ_RIRdgeJaWhaA6o?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Express, a cozy cafe located in Akouda, Tunisia (35.8736484, 10.5695322), offers a relaxing ambience and delightful coffee creations. With 4.7 stars out of 3 reviews, it's a go-to spot for coffee enthusiasts.</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>Where in Akouda can you find a highly rated (4.7) Cafe named Express, offering a diverse selection of Cafe options?</t>
+          <t>Day Plan:
+Morning: Explore Koussour Gharnata, a luxurious hotel with impeccable ratings.
+Mid-Morning: Visit the Municipality of Akouda to learn about local government services.
+Midday: Try local cuisine at Be One Food, a restaurant with rave reviews.
+Afternoon: Enjoy scenic views at the beach or a park in Akouda.
+Evening: Participate in a dance event at AND Dance Sousse, a dance club with a vibrant atmosphere.
+Night: Relax with a spa treatment at Koussour Gharnata to rejuvenate after a fun-filled day.</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe La Sirene is a cafe located in Akouda, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is located at WH7F+QMX and can be contacted by phone at 73 328 049.
+Giornale is a café located in Av. de la Republique, Akouda. It is a popular spot for coffee, tea, and snacks, and offers a cozy atmosphere to relax and enjoy a cup of coffee. Giornale has a rating of 5.0 on Google reviews, and is open from 5am to 1am.
+**Ilcapo: A 24/7 Oasis in Akouda**
+Discover Ilcapo, a vibrant cafeteria offering a 24/7 sanctuary in Akouda. Located at VHF8+2P3, Ilcapo boasts a cozy atmosphere and an extensive menu of delectable treats. With a 5-star rating and glowing reviews praising its exceptional service and appetizing offerings, this cafe has become a beloved destination for locals and visitors alike.
+Be One Food is a restaurant located in Akouda (coordinates: 35.8988738, 10.5505777), open from 8:00 AM to midnight. It has received rave reviews, earning a rating of 5.0. Despite the lack of information about the menu, this establishment is highly recommended and worth exploring for its culinary delights.
+Municipality of Akouda is located in Akouda, Tunisia. It is an administrative municipal building that provides local government services to the community. The municipality's office hours are from 8:00 AM to 5:00 PM during weekdays, and it is closed on Sundays.
+In the heart of Akouda, Koussour Gharnata offers a luxurious hotel experience. With impeccable ratings, the hotel boasts a prime location with convenient access to local attractions. Whether you're seeking relaxation or adventure, Koussour Gharnata invites you to explore its exceptional amenities and the vibrant city that surrounds it.
+Located in Akouda, AND Dance Sousse is a dance club offering a vibrant atmosphere for dance enthusiasts. With a focus on dance and entertainment, the club provides a platform for individuals to showcase their moves and enjoy the rhythm. Its proximity to the city center at longitude 10.637853127292 and latitude 35.820659199508 makes it easily accessible for patrons seeking a lively and immersive dance experience.
+Gambino's pizza is a pizzeria located in akouda. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at the coordinates (39.561562, -95.121066).
+Station Services OLA Energy is a petrol station located in Akouda, Tunisia, at the coordinates (35.8988738, 10.5505777). Open 24 hours a day, the station offers a range of services to motorists, including fuel, lubricants, and car washes. With a rating of 4.5 out of 5 based on 14 reviews, the station is highly regarded by its customers for its friendly service and convenient location.
+Station de Transport Akouda - Chott Mariem, found in Akouda, Tunisia, is a taxi station that provides reliable transportation services. It is conveniently located at the coordinates (35.8691, 10.5653), making it easily accessible for locals and visitors alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2077,12 +2685,55 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>If you're in akouda and looking for something fun to do, check out Be One Food located at VHFC+VPP Be One Food, SOUSSE, Akouda 4022. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-00:00. To get there, use these GPS coordinates: 35.8988738, 10.5505777. For more details, visit their website at https://www.google.com/maps/place/Be+One+Food/data=!4m7!3m6!1s0x12fd8bb31d1bfed5:0x62bdeb84d5b0321c!8m2!3d35.8747071!4d10.5718404!16s%2Fg%2F11qbhdtr3b!19sChIJ1f4bHbOL_RIRHDKw1YTrvWI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 54 135 400.</t>
+          <t>Be One Food is a restaurant located in Akouda (coordinates: 35.8988738, 10.5505777), open from 8:00 AM to midnight. It has received rave reviews, earning a rating of 5.0. Despite the lack of information about the menu, this establishment is highly recommended and worth exploring for its culinary delights.</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>Where in Akouda can you find a highly-rated (5.0) restaurant offering a range of cuisine options and specializing in Restaurant categories?</t>
+          <t>Day Plan:
+Morning: Explore the scenic Koussour Gharnata, a luxurious hotel offering impeccable ratings and convenient access to local attractions.
+Mid-Morning: Visit the Municipality of Akouda to learn about the local government and its services to the community.
+Midday: Try local cuisine at Restaurant Qods, a highly-rated dining establishment known for its diverse menu and culinary delights.
+Afternoon: Engage in outdoor activities at AND Dance Sousse, a vibrant dance club offering a platform for dance enthusiasts to showcase their moves and enjoy the rhythm.
+Evening: Relax with a spa treatment at Koussour Gharnata's exceptional amenities, unwinding after a day of exploration.
+Night: Experience cultural immersion at the 90's Coffee Shop, a cozy café that transports you back to the vibrant era of the 1990s, with its nostalgic ambiance and delicious coffee and treats.</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in the heart of Akouda, Tunisia, The 90's Coffee Shop is a cozy café that transports you back to the vibrant era of the 1990s. With a rating of 5.0, this popular spot offers a nostalgic ambiance, coupled with delicious coffee and treats. Its convenient location at coordinates (35.8736484, 10.5695322) makes it easily accessible to both locals and visitors alike. Whether you're seeking a caffeine fix or a momentary escape, The 90's Coffee Shop is the perfect destination.
+Giornale is a café located in Av. de la Republique, Akouda. It is a popular spot for coffee, tea, and snacks, and offers a cozy atmosphere to relax and enjoy a cup of coffee. Giornale has a rating of 5.0 on Google reviews, and is open from 5am to 1am.
+Ilcapo is a popular cafe located in Akouda, Tunisia, with a 5-star rating based on 5 reviews. The cafe is open 24 hours a day and is known for its cozy atmosphere and delicious food. The cafe is located at the coordinates (35.8736484, 10.5695322) and offers a variety of food and drinks, including coffee, tea, pastries, and sandwiches.
+Restaurant Qods is a highly-rated dining establishment located in Akouda, Tunisia. Offering a diverse menu of culinary delights, this restaurant has consistently garnered 5-star reviews from patrons. Situated at coordinates (35.8736484, 10.5695322), Restaurant Qods is a convenient destination for those seeking a satisfying dining experience in the area.
+Municipality of Akouda is located in Akouda, Tunisia. It is an administrative municipal building that provides local government services to the community. The municipality's office hours are from 8:00 AM to 5:00 PM during weekdays, and it is closed on Sundays.
+In the heart of Akouda, Koussour Gharnata offers a luxurious hotel experience. With impeccable ratings, the hotel boasts a prime location with convenient access to local attractions. Whether you're seeking relaxation or adventure, Koussour Gharnata invites you to explore its exceptional amenities and the vibrant city that surrounds it.
+Located in Akouda, AND Dance Sousse is a dance club offering a vibrant atmosphere for dance enthusiasts. With a focus on dance and entertainment, the club provides a platform for individuals to showcase their moves and enjoy the rhythm. Its proximity to the city center at longitude 10.637853127292 and latitude 35.820659199508 makes it easily accessible for patrons seeking a lively and immersive dance experience.
+Gambino's pizza is a pizzeria located in akouda. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at the coordinates (39.561562, -95.121066).
+Akouda is a gas station located in Akouda, at the coordinates (35.866141102648, 10.573438518111). It offers various services and products related to fueling and maintaining vehicles. The gas station is open from Monday to Saturday from 8:00 AM to 5:00 PM and is closed on Sundays.
+Station de Transport Akouda - Chott Mariem is a taxi station located in Akouda, Tunisia. It offers transportation services to and from the city and surrounding areas, and is a convenient option for travelers and locals alike. The station is located at VH8C+HCH Station de Transport Akouda - Chott Mariem, Akouda, and has received a rating of 3.3 based on 3 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2178,12 +2829,55 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>If you're in Akouda and looking for a great cafe experience, check out Cafe Break Time located at shr` lbyy'@, 'kwd@,, Akouda. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe options to choose from. With a 5.0 star rating, it's a must-visit spot. It's open from 5:00 AM to 11:00 PM every day. To get there, use these GPS coordinates: 35.8736484, 10.5695322.</t>
+          <t>Cafe Break Time, located in Akouda (Tunisia), is a highly-rated (5.0/5) cafe open from 5:00 AM to 11:00 PM with a featured image showcasing its inviting ambiance. Located at coordinates (35.8736484, 10.5695322), this establishment offers a relaxing atmosphere for locals and tourists alike to enjoy a cup of coffee or tea.</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe offering a wide selection of options in Akouda?</t>
+          <t>Day Plan:
+Morning: Explore the historical Municipality of Akouda to learn about local governance.
+Mid-Morning: Visit Koussour Gharnata for a luxurious hotel experience and enjoy its exceptional amenities.
+Midday: Try local cuisine at Ben Youssef Grills, known for its delicious grilled meats and vegetarian options.
+Afternoon: Participate in dance and entertainment at AND Dance Sousse, showcasing your moves and experiencing the vibrant atmosphere.
+Evening: Enjoy a relaxing evening at Giornale, sipping coffee or tea in a cozy atmosphere.
+Night: Explore the scenic views of Akouda from a local park or beach, immersing yourself in the tranquility of nature.</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Hssine Khlaf is a cafe located at Av. de la Republique, Akouda. This cafe has a rating of 4.5 stars.
+Giornale is a café located in Av. de la Republique, Akouda. It is a popular spot for coffee, tea, and snacks, and offers a cozy atmosphere to relax and enjoy a cup of coffee. Giornale has a rating of 5.0 on Google reviews, and is open from 5am to 1am.
+Ilcapo is a popular cafe located in Akouda, Tunisia, with a 5-star rating based on 5 reviews. The cafe is open 24 hours a day and is known for its cozy atmosphere and delicious food. The cafe is located at the coordinates (35.8736484, 10.5695322) and offers a variety of food and drinks, including coffee, tea, pastries, and sandwiches.
+Ben Youssef Grills is a restaurant located in Akouda, Tunisia. It offers a variety of dishes, including grilled meats, seafood, and vegetarian options. The restaurant is open for lunch and dinner, and it has a rating of 4.4 out of 5 stars on Google.
+Municipality of Akouda is located in Akouda, Tunisia. It is an administrative municipal building that provides local government services to the community. The municipality's office hours are from 8:00 AM to 5:00 PM during weekdays, and it is closed on Sundays.
+In the heart of Akouda, Koussour Gharnata offers a luxurious hotel experience. With impeccable ratings, the hotel boasts a prime location with convenient access to local attractions. Whether you're seeking relaxation or adventure, Koussour Gharnata invites you to explore its exceptional amenities and the vibrant city that surrounds it.
+Located in Akouda, AND Dance Sousse is a dance club offering a vibrant atmosphere for dance enthusiasts. With a focus on dance and entertainment, the club provides a platform for individuals to showcase their moves and enjoy the rhythm. Its proximity to the city center at longitude 10.637853127292 and latitude 35.820659199508 makes it easily accessible for patrons seeking a lively and immersive dance experience.
+Gambino's pizza is a pizzeria located in akouda. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at the coordinates (39.561562, -95.121066).
+Station Services OLA Energy is a petrol station located in Akouda, Tunisia, at the coordinates (35.8988738, 10.5505777). Open 24 hours a day, the station offers a range of services to motorists, including fuel, lubricants, and car washes. With a rating of 4.5 out of 5 based on 14 reviews, the station is highly regarded by its customers for its friendly service and convenient location.
+Station de Transport Akouda - Chott Mariem is a taxi station located in Akouda, Tunisia. It offers transportation services to and from the city and surrounding areas, and is a convenient option for travelers and locals alike. The station is located at VH8C+HCH Station de Transport Akouda - Chott Mariem, Akouda, and has received a rating of 3.3 based on 3 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2275,12 +2969,55 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>If you're in Akouda and looking for a top-notch coffee experience, head to Cafe Lynda at Immeuble Ines Auto Route GP1 - Z.I Akouda. This highly rated cafe offers a cozy and inviting ambiance perfect for coffee lovers. With a rating of 5.0, it's a must-visit spot for those who appreciate exceptional coffee. To get there, follow the GPS coordinates: 35.8988738, 10.5505777. Visit their website at https://www.google.com/maps/place/Caf%C3%A9+Lynda/data=!4m7!3m6!1s0x12fd8bcc246cb82b:0xad79ecd9af88996!8m2!3d35.880357!4d10.5779261!16s%2Fg%2F11szjpy3ym!19sChIJK7hsJMyL_RIRlon4ms2e1wo?authuser=0&amp;hl=fr&amp;rclk=1 for more details.</t>
+          <t>Cafe Lynda is a cafe located in Akouda, Tunisia. It offers a variety of coffee drinks, as well as pastries and other snacks. The cafe is located at the coordinates (35.8988738, 10.5505777).</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>Where in Akouda can you find a highly rated cafe with an exceptional coffee experience?</t>
+          <t>Day Plan:
+Morning: Exploring Koussour Gharnata
+Mid-Morning: Having breakfast at Cafe La Sirene
+Midday: Enjoying the local cuisine at Ben Youssef Grills
+Afternoon: Shopping at a local market
+Evening: Participating in a dance event at AND Dance Sousse
+Night: Relaxing at a spa at the Koussour Gharnata Hotel</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe La Sirene is a cafe located in Akouda, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is located at WH7F+QMX and can be contacted by phone at 73 328 049.
+Giornale is a café located in Av. de la Republique, Akouda. It is a popular spot for coffee, tea, and snacks, and offers a cozy atmosphere to relax and enjoy a cup of coffee. Giornale has a rating of 5.0 on Google reviews, and is open from 5am to 1am.
+Ilcapo is a popular cafe located in Akouda, Tunisia, with a 5-star rating based on 5 reviews. The cafe is open 24 hours a day and is known for its cozy atmosphere and delicious food. The cafe is located at the coordinates (35.8736484, 10.5695322) and offers a variety of food and drinks, including coffee, tea, pastries, and sandwiches.
+Ben Youssef Grills is a restaurant located in Akouda, Tunisia. It offers a variety of dishes, including grilled meats, seafood, and vegetarian options. The restaurant is open for lunch and dinner, and it has a rating of 4.4 out of 5 stars on Google.
+Municipality of Akouda is located in Akouda, Tunisia. It is an administrative municipal building that provides local government services to the community. The municipality's office hours are from 8:00 AM to 5:00 PM during weekdays, and it is closed on Sundays.
+In the heart of Akouda, Koussour Gharnata offers a luxurious hotel experience. With impeccable ratings, the hotel boasts a prime location with convenient access to local attractions. Whether you're seeking relaxation or adventure, Koussour Gharnata invites you to explore its exceptional amenities and the vibrant city that surrounds it.
+Located in Akouda, AND Dance Sousse is a dance club offering a vibrant atmosphere for dance enthusiasts. With a focus on dance and entertainment, the club provides a platform for individuals to showcase their moves and enjoy the rhythm. Its proximity to the city center at longitude 10.637853127292 and latitude 35.820659199508 makes it easily accessible for patrons seeking a lively and immersive dance experience.
+Gambino's pizza is a pizzeria located in akouda. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at the coordinates (39.561562, -95.121066).
+Akouda is a gas station located in Akouda, at the coordinates (35.866141102648, 10.573438518111). It offers various services and products related to fueling and maintaining vehicles. The gas station is open from Monday to Saturday from 8:00 AM to 5:00 PM and is closed on Sundays.
+Station de Transport Akouda - Chott Mariem, found in Akouda, Tunisia, is a taxi station that provides reliable transportation services. It is conveniently located at the coordinates (35.8691, 10.5653), making it easily accessible for locals and visitors alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2372,12 +3109,61 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>If you're in akouda and looking for something fun to do, check out Good time coffee located at VHCJ+RQV, Akouda. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. Its open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 16.8512, 96.1858. For more details, visit their website at https://www.google.com/maps/place/Good+time+coffee/data=!4m7!3m6!1s0x12fd8bf894aa1015:0x99cb82bfa311901a!8m2!3d35.872119!4d10.5819201!16s%2Fg%2F11hk5k25vy!19sChIJFRCqlPiL_RIRGpARo7-Cy5k?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Good time coffee is a cafe located in akouda, Myanmar (16.8512, 96.1858). With an overall rating of 5.0, it has received 1 review so far. The cafe's featured image can be found at: https://lh5.googleusercontent.com/p/AF1QipPPNkVdwRx3fu4K1QRnJS_-lug4b4XUVCLIIk5x=w408-h306-k-no</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>Where in Akouda can you find the top-rated Good time coffee, known for its exceptional Cafe, with GPS coordinates 16.8512, 96.1858?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the Municipality of Akouda to learn about local government services.
+**Mid-Morning:**
+- Visit Koussour Gharnata, a luxurious hotel, to appreciate its comfort and ambiance.
+**Midday:**
+- Try local cuisine at Restaurant Qods, renowned for its culinary delights.
+**Afternoon:**
+- Enjoy outdoor activities at AND Dance Sousse, a lively dance club.
+**Evening:**
+- Relax with a rejuvenating massage at Ilcapo, a popular café with a cozy atmosphere.
+**Night:**
+- Immerse yourself in local culture at Gambino's pizza, a pizzeria offering authentic Italian flavors.</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Express, a cozy cafe located in Akouda, Tunisia (35.8736484, 10.5695322), offers a relaxing ambience and delightful coffee creations. With 4.7 stars out of 3 reviews, it's a go-to spot for coffee enthusiasts.
+Giornale is a café located in Av. de la Republique, Akouda. It is a popular spot for coffee, tea, and snacks, and offers a cozy atmosphere to relax and enjoy a cup of coffee. Giornale has a rating of 5.0 on Google reviews, and is open from 5am to 1am.
+Ilcapo is a popular cafe located in Akouda, Tunisia, with a 5-star rating based on 5 reviews. The cafe is open 24 hours a day and is known for its cozy atmosphere and delicious food. The cafe is located at the coordinates (35.8736484, 10.5695322) and offers a variety of food and drinks, including coffee, tea, pastries, and sandwiches.
+Restaurant Qods is a highly-rated dining establishment located in Akouda, Tunisia. Offering a diverse menu of culinary delights, this restaurant has consistently garnered 5-star reviews from patrons. Situated at coordinates (35.8736484, 10.5695322), Restaurant Qods is a convenient destination for those seeking a satisfying dining experience in the area.
+Municipality of Akouda is located in Akouda, Tunisia. It is an administrative municipal building that provides local government services to the community. The municipality's office hours are from 8:00 AM to 5:00 PM during weekdays, and it is closed on Sundays.
+In the heart of Akouda, Koussour Gharnata offers a luxurious hotel experience. With impeccable ratings, the hotel boasts a prime location with convenient access to local attractions. Whether you're seeking relaxation or adventure, Koussour Gharnata invites you to explore its exceptional amenities and the vibrant city that surrounds it.
+Located in Akouda, AND Dance Sousse is a dance club offering a vibrant atmosphere for dance enthusiasts. With a focus on dance and entertainment, the club provides a platform for individuals to showcase their moves and enjoy the rhythm. Its proximity to the city center at longitude 10.637853127292 and latitude 35.820659199508 makes it easily accessible for patrons seeking a lively and immersive dance experience.
+Gambino's pizza is a pizzeria located in akouda. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at the coordinates (39.561562, -95.121066).
+Akouda is a gas station located in Akouda, at the coordinates (35.866141102648, 10.573438518111). It offers various services and products related to fueling and maintaining vehicles. The gas station is open from Monday to Saturday from 8:00 AM to 5:00 PM and is closed on Sundays.
+Station de Transport Akouda - Chott Mariem is a taxi station located in Akouda, Tunisia. It offers transportation services to and from the city and surrounding areas, and is a convenient option for travelers and locals alike. The station is located at VH8C+HCH Station de Transport Akouda - Chott Mariem, Akouda, and has received a rating of 3.3 based on 3 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2469,14 +3255,55 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>If you're in akouda and looking for something fun to do, check out The 90's Coffee Shop located at VH96+3R The 90's Coffee Shop, Akouda. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.8736484, 10.5695322.</t>
+          <t>Nestled in the heart of Akouda, Tunisia, The 90's Coffee Shop is a cozy café that transports you back to the vibrant era of the 1990s. With a rating of 5.0, this popular spot offers a nostalgic ambiance, coupled with delicious coffee and treats. Its convenient location at coordinates (35.8736484, 10.5695322) makes it easily accessible to both locals and visitors alike. Whether you're seeking a caffeine fix or a momentary escape, The 90's Coffee Shop is the perfect destination.</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Cafe called The 90's Coffee Shop with precise GPS coordinates in Akouda?</t>
+          <t>Day Plan:
+Morning: Explore the Municipality of Akouda to learn about local governance and community services.
+Mid-Morning: Visit Koussour Gharnata for a luxurious hotel experience and explore its exceptional amenities.
+Midday: Try local cuisine at Gambino's pizza, known for its delicious pizzas and other Italian dishes.
+Afternoon: Enjoy a relaxing swim and sunbathing at the beach.
+Evening: Dance the night away at AND Dance Sousse, a vibrant dance club with a lively atmosphere.
+Night: Wind down at the Giornale café, a cozy spot for a relaxing evening with coffee or tea.</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE LAADHARI is a cafe located in akouda with an impressive rating of 4.1 based on 51 reviews. The cafe offers various quad specialties, a popular item among its customers. Geographically, CAFE LAADHARI is situated at the coordinates (35.8736484, 10.5695322), making it easily accessible to visitors in the area.
+Giornale is a café located in Av. de la Republique, Akouda. It is a popular spot for coffee, tea, and snacks, and offers a cozy atmosphere to relax and enjoy a cup of coffee. Giornale has a rating of 5.0 on Google reviews, and is open from 5am to 1am.
+Ilcapo is a popular cafe located in Akouda, Tunisia, with a 5-star rating based on 5 reviews. The cafe is open 24 hours a day and is known for its cozy atmosphere and delicious food. The cafe is located at the coordinates (35.8736484, 10.5695322) and offers a variety of food and drinks, including coffee, tea, pastries, and sandwiches.
+Discover Rapido food, Akouda's restaurant with a stellar 5.0 rating. Experience culinary delights in a convenient location, just a call away at 54 702 701. Using the website link, explore their offerings and plan your next dining experience.
+Municipality of Akouda is located in Akouda, Tunisia. It is an administrative municipal building that provides local government services to the community. The municipality's office hours are from 8:00 AM to 5:00 PM during weekdays, and it is closed on Sundays.
+In the heart of Akouda, Koussour Gharnata offers a luxurious hotel experience. With impeccable ratings, the hotel boasts a prime location with convenient access to local attractions. Whether you're seeking relaxation or adventure, Koussour Gharnata invites you to explore its exceptional amenities and the vibrant city that surrounds it.
+Located in Akouda, AND Dance Sousse is a dance club offering a vibrant atmosphere for dance enthusiasts. With a focus on dance and entertainment, the club provides a platform for individuals to showcase their moves and enjoy the rhythm. Its proximity to the city center at longitude 10.637853127292 and latitude 35.820659199508 makes it easily accessible for patrons seeking a lively and immersive dance experience.
+Gambino's pizza is a pizzeria located in akouda. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at the coordinates (39.561562, -95.121066).
+Station Services OLA Energy is a petrol station located in Akouda, Tunisia, at the coordinates (35.8988738, 10.5505777). Open 24 hours a day, the station offers a range of services to motorists, including fuel, lubricants, and car washes. With a rating of 4.5 out of 5 based on 14 reviews, the station is highly regarded by its customers for its friendly service and convenient location.
+Station de Transport Akouda - Chott Mariem is a taxi station located in Akouda, Tunisia. It offers transportation services to and from the city and surrounding areas, and is a convenient option for travelers and locals alike. The station is located at VH8C+HCH Station de Transport Akouda - Chott Mariem, Akouda, and has received a rating of 3.3 based on 3 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2568,12 +3395,62 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>If you're in akouda and looking for a great Cafe, check out Cafeteria Le Municipalite located at VH89+63C, Akouda. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: nan, but closed on . To get there, use these GPS coordinates: 33.80033, -6.80036.</t>
+          <t>Cafeteria Le Municipalite is a highly-rated cafe located in Akouda (33.80033, -6.80036). With a rating of 5.0 and 1 review, it stands out as a popular spot for coffee enthusiasts. Despite the lack of information about its offerings, the cafe has garnered positive feedback.</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe with a perfect 5.0 rating, offering a diverse selection of cafe options in Akouda?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the Municipality of Akouda to learn about the local administration and community services.
+**Mid-Morning:**
+- Try local cuisine at Fast Food Mexico, enjoying authentic Mexican flavors in a casual setting.
+**Midday:**
+- Visit the historic Koussour Gharnata for a luxurious hotel experience and immerse yourself in the city's history and culture.
+**Afternoon:**
+- Enjoy a relaxing afternoon at Giornale, sipping coffee or tea while catching up on some reading or enjoying the cozy ambiance.
+**Evening:**
+- Experience the vibrant atmosphere of AND Dance Sousse, showcasing your moves or simply soaking up the rhythm and energy.
+**Night:**
+- Indulge in a soothing spa experience at Ilcapo, offering a haven of relaxation and tranquility after a day of exploration.</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Break Time, located in Akouda (Tunisia), is a highly-rated (5.0/5) cafe open from 5:00 AM to 11:00 PM with a featured image showcasing its inviting ambiance. Located at coordinates (35.8736484, 10.5695322), this establishment offers a relaxing atmosphere for locals and tourists alike to enjoy a cup of coffee or tea.
+Giornale is a café located in Av. de la Republique, Akouda. It is a popular spot for coffee, tea, and snacks, and offers a cozy atmosphere to relax and enjoy a cup of coffee. Giornale has a rating of 5.0 on Google reviews, and is open from 5am to 1am.
+**Ilcapo: A 24/7 Oasis in Akouda**
+Discover Ilcapo, a vibrant cafeteria offering a 24/7 sanctuary in Akouda. Located at VHF8+2P3, Ilcapo boasts a cozy atmosphere and an extensive menu of delectable treats. With a 5-star rating and glowing reviews praising its exceptional service and appetizing offerings, this cafe has become a beloved destination for locals and visitors alike.
+Fast food Mexico is a restaurant located in Akouda, Tunisia, at coordinates (35.8736484, 10.5695322). It offers a wide variety of Mexican dishes in a casual and friendly setting. The restaurant is open from 09:00-00:00 from Monday to Saturday and is closed on Sundays. Fast food Mexico has received an average rating of 4.0 based on 2 reviews on Google.
+Municipality of Akouda is located in Akouda, Tunisia. It is an administrative municipal building that provides local government services to the community. The municipality's office hours are from 8:00 AM to 5:00 PM during weekdays, and it is closed on Sundays.
+In the heart of Akouda, Koussour Gharnata offers a luxurious hotel experience. With impeccable ratings, the hotel boasts a prime location with convenient access to local attractions. Whether you're seeking relaxation or adventure, Koussour Gharnata invites you to explore its exceptional amenities and the vibrant city that surrounds it.
+Located in Akouda, AND Dance Sousse is a dance club offering a vibrant atmosphere for dance enthusiasts. With a focus on dance and entertainment, the club provides a platform for individuals to showcase their moves and enjoy the rhythm. Its proximity to the city center at longitude 10.637853127292 and latitude 35.820659199508 makes it easily accessible for patrons seeking a lively and immersive dance experience.
+Gambino's pizza is a pizzeria located in akouda. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at the coordinates (39.561562, -95.121066).
+Akouda is a gas station located in Akouda, at the coordinates (35.866141102648, 10.573438518111). It offers various services and products related to fueling and maintaining vehicles. The gas station is open from Monday to Saturday from 8:00 AM to 5:00 PM and is closed on Sundays.
+Station de Transport Akouda - Chott Mariem is a taxi station located in Akouda, Tunisia. It offers transportation services to and from the city and surrounding areas, and is a convenient option for travelers and locals alike. The station is located at VH8C+HCH Station de Transport Akouda - Chott Mariem, Akouda, and has received a rating of 3.3 based on 3 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2669,12 +3546,56 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>If you're in akouda and looking for something fun to do, check out Salon De The Le Rendez Vous located at VHFJ+RFP Salon De The Le Rendez vous, P1, Akouda. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 36.742836, 10.1953352. For more details, visit their website at https://www.google.com/maps/place/Salon+De+The+Le+Rendez+vous/data=!4m7!3m6!1s0x12fd8a2ee8047199:0x74087416b0b23553!8m2!3d35.8745803!4d10.5811977!16s%2Fg%2F11dxc_2flk!19sChIJmXEE6C6K_RIRUzWysBZ0CHQ?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Salon De The Le Rendez vous, located in Akouda (36.742836, 10.1953352), is a popular cafe with a warm ambiance. It offers a relaxing environment with its featured image of a comfortable seating area. With a 4.3-star rating based on 9 reviews, Salon De The Le Rendez vous is open daily from 6 AM to midnight. Come and experience the delight of this cafe for yourself!</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated destination in Akouda that offers a variety of Cafe and boasts a 4.3 rating?</t>
+          <t>Day Plan:
+Morning: Explore the Municipality of Akouda, gaining insights into local governance and community life.
+Mid-Morning: Visit Koussour Gharnata, immerse yourself in luxury, and soak in the ambiance of this prestigious hotel.
+Midday: Try local cuisine at Be One Food, savoring the authentic flavors of Akouda's culinary scene.
+Afternoon: Engage in outdoor activities at AND Dance Sousse, where you can dance to the rhythm and experience the vibrant atmosphere.
+Evening: Explore Giornale, a popular spot for sipping coffee, tea, or snacks while taking in the cozy ambiance.
+Night: Relax with a delightful stay at Koussour Gharnata, indulging in the hotel's exceptional amenities and services.</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Good time coffee is a cafe located in akouda, Myanmar (16.8512, 96.1858). With an overall rating of 5.0, it has received 1 review so far. The cafe's featured image can be found at: https://lh5.googleusercontent.com/p/AF1QipPPNkVdwRx3fu4K1QRnJS_-lug4b4XUVCLIIk5x=w408-h306-k-no
+Giornale is a café located in Av. de la Republique, Akouda. It is a popular spot for coffee, tea, and snacks, and offers a cozy atmosphere to relax and enjoy a cup of coffee. Giornale has a rating of 5.0 on Google reviews, and is open from 5am to 1am.
+**Ilcapo: A 24/7 Oasis in Akouda**
+Discover Ilcapo, a vibrant cafeteria offering a 24/7 sanctuary in Akouda. Located at VHF8+2P3, Ilcapo boasts a cozy atmosphere and an extensive menu of delectable treats. With a 5-star rating and glowing reviews praising its exceptional service and appetizing offerings, this cafe has become a beloved destination for locals and visitors alike.
+Be One Food, a restaurant located in the Akouda district, is open 24 hours a day and offers a wide range of dishes. With a rating of 5.0 based on 3 reviews, it is a popular destination for diners looking for a delicious meal at any time of day. The restaurant's exact coordinates are (35.8736484, 10.5695322).
+Municipality of Akouda is located in Akouda, Tunisia. It is an administrative municipal building that provides local government services to the community. The municipality's office hours are from 8:00 AM to 5:00 PM during weekdays, and it is closed on Sundays.
+In the heart of Akouda, Koussour Gharnata offers a luxurious hotel experience. With impeccable ratings, the hotel boasts a prime location with convenient access to local attractions. Whether you're seeking relaxation or adventure, Koussour Gharnata invites you to explore its exceptional amenities and the vibrant city that surrounds it.
+Located in Akouda, AND Dance Sousse is a dance club offering a vibrant atmosphere for dance enthusiasts. With a focus on dance and entertainment, the club provides a platform for individuals to showcase their moves and enjoy the rhythm. Its proximity to the city center at longitude 10.637853127292 and latitude 35.820659199508 makes it easily accessible for patrons seeking a lively and immersive dance experience.
+Gambino's pizza is a pizzeria located in akouda. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at the coordinates (39.561562, -95.121066).
+Station Services OLA Energy is a petrol station located in Akouda, Tunisia, at the coordinates (35.8988738, 10.5505777). Open 24 hours a day, the station offers a range of services to motorists, including fuel, lubricants, and car washes. With a rating of 4.5 out of 5 based on 14 reviews, the station is highly regarded by its customers for its friendly service and convenient location.
+Station de Transport Akouda - Chott Mariem, found in Akouda, Tunisia, is a taxi station that provides reliable transportation services. It is conveniently located at the coordinates (35.8691, 10.5653), making it easily accessible for locals and visitors alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2774,12 +3695,55 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>If you're in akouda and looking for something fun to do, check out municipalite Akouda located at VH89+34J municipalite Akouda, Av. de la Republique, Akouda. This top-rated destination is perfect for Administration municipale lovers and offers a range of Administration municipale to choose from. With a rating of 3.6, it's a must-visit spot. It's open during these hours: 08:00-17:00, but closed on dimanche. To get there, use these GPS coordinates: 35.866141102648, 10.573438518111. For more details, visit their website at http://www.commune-akouda.gov.tn/.</t>
+          <t>Municipality of Akouda is located in Akouda, Tunisia. It is an administrative municipal building that provides local government services to the community. The municipality's office hours are from 8:00 AM to 5:00 PM during weekdays, and it is closed on Sundays.</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>Where in Akouda can you find a highly rated destination for Administration municipale enthusiasts with specific operating hours and GPS coordinates?</t>
+          <t>Day Plan:
+Morning: Explore the Akouda gas station for local gas and souvenirs
+Mid-Morning: Try local cuisine at Gambino's pizza
+Midday: Visit the Koussour Gharnata for a luxurious hotel experience
+Afternoon: Enjoy recreational activities at AND Dance Sousse and participate in dance events
+Evening: Shop at the Mosque of Akouda for local souvenirs
+Night: Relax with a scenic view at the Akouda Beach</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Salon De The Le Rendez vous, located in Akouda (36.742836, 10.1953352), is a popular cafe with a warm ambiance. It offers a relaxing environment with its featured image of a comfortable seating area. With a 4.3-star rating based on 9 reviews, Salon De The Le Rendez vous is open daily from 6 AM to midnight. Come and experience the delight of this cafe for yourself!
+Giornale is a café located in Av. de la Republique, Akouda. It is a popular spot for coffee, tea, and snacks, and offers a cozy atmosphere to relax and enjoy a cup of coffee. Giornale has a rating of 5.0 on Google reviews, and is open from 5am to 1am.
+Ilcapo is a popular cafe located in Akouda, Tunisia, with a 5-star rating based on 5 reviews. The cafe is open 24 hours a day and is known for its cozy atmosphere and delicious food. The cafe is located at the coordinates (35.8736484, 10.5695322) and offers a variety of food and drinks, including coffee, tea, pastries, and sandwiches.
+Restaurant Qods is a highly-rated restaurant located in Akouda, Tunisia. It's known for its excellent cuisine and friendly service. The restaurant serves a variety of dishes, including traditional Tunisian dishes and international cuisine. Restaurant Qods is open daily from 8:00 AM to 12:00 AM and is conveniently located near the city center.
+Municipality of Akouda is located in Akouda, Tunisia. It is an administrative municipal building that provides local government services to the community. The municipality's office hours are from 8:00 AM to 5:00 PM during weekdays, and it is closed on Sundays.
+In the heart of Akouda, Koussour Gharnata offers a luxurious hotel experience. With impeccable ratings, the hotel boasts a prime location with convenient access to local attractions. Whether you're seeking relaxation or adventure, Koussour Gharnata invites you to explore its exceptional amenities and the vibrant city that surrounds it.
+Located in Akouda, AND Dance Sousse is a dance club offering a vibrant atmosphere for dance enthusiasts. With a focus on dance and entertainment, the club provides a platform for individuals to showcase their moves and enjoy the rhythm. Its proximity to the city center at longitude 10.637853127292 and latitude 35.820659199508 makes it easily accessible for patrons seeking a lively and immersive dance experience.
+Gambino's pizza is a pizzeria located in akouda. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at the coordinates (39.561562, -95.121066).
+Akouda is a gas station located in Akouda, at the coordinates (35.866141102648, 10.573438518111). It offers various services and products related to fueling and maintaining vehicles. The gas station is open from Monday to Saturday from 8:00 AM to 5:00 PM and is closed on Sundays.
+Station de Transport Akouda - Chott Mariem is a taxi station located in Akouda, Tunisia. It offers transportation services to and from the city and surrounding areas, and is a convenient option for travelers and locals alike. The station is located at VH8C+HCH Station de Transport Akouda - Chott Mariem, Akouda, and has received a rating of 3.3 based on 3 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2871,15 +3835,55 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>If you're in akouda and looking for a Banque, check out BIAT located at VH8C+85C BIAT, Akouda. 
-This top-rated destination is perfect for Banque lovers and offers a range of categories to choose from. 
-With a rating of 3.0, it's a must-visit spot. To get there, use these GPS coordinates: (35.8660241, 10.5704359). For more details, visit their website 
-at http://www.biat.com.tn/.</t>
+          <t>BIAT, a banking institution in Akouda, Tunisia, offers financial services. Located at coordinates (35.8660241, 10.5704359), it is well-rated among customers.</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Banque in Akouda with specific GPS coordinates and a website for further information?</t>
+          <t>Day Plan:
+Morning: Explore the Municipality of Akouda to learn about local government operations.
+Mid-Morning: Try local cuisine at Be One Food for a delicious meal.
+Midday: Relax with a luxurious hotel experience at Koussour Gharnata.
+Afternoon: Enjoy dance and entertainment at AND Dance Sousse.
+Evening: Explore local culture at Gambino's pizza, enjoying traditional Italian dishes.
+Night: Experience scenic views at Akouda beach.</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Express, a cozy cafe located in Akouda, Tunisia (35.8736484, 10.5695322), offers a relaxing ambience and delightful coffee creations. With 4.7 stars out of 3 reviews, it's a go-to spot for coffee enthusiasts.
+Giornale is a café located in Av. de la Republique, Akouda. It is a popular spot for coffee, tea, and snacks, and offers a cozy atmosphere to relax and enjoy a cup of coffee. Giornale has a rating of 5.0 on Google reviews, and is open from 5am to 1am.
+Ilcapo is a popular cafe located in Akouda, Tunisia, with a 5-star rating based on 5 reviews. The cafe is open 24 hours a day and is known for its cozy atmosphere and delicious food. The cafe is located at the coordinates (35.8736484, 10.5695322) and offers a variety of food and drinks, including coffee, tea, pastries, and sandwiches.
+Be One Food, a restaurant located in the Akouda district, is open 24 hours a day and offers a wide range of dishes. With a rating of 5.0 based on 3 reviews, it is a popular destination for diners looking for a delicious meal at any time of day. The restaurant's exact coordinates are (35.8736484, 10.5695322).
+Municipality of Akouda is located in Akouda, Tunisia. It is an administrative municipal building that provides local government services to the community. The municipality's office hours are from 8:00 AM to 5:00 PM during weekdays, and it is closed on Sundays.
+In the heart of Akouda, Koussour Gharnata offers a luxurious hotel experience. With impeccable ratings, the hotel boasts a prime location with convenient access to local attractions. Whether you're seeking relaxation or adventure, Koussour Gharnata invites you to explore its exceptional amenities and the vibrant city that surrounds it.
+Located in Akouda, AND Dance Sousse is a dance club offering a vibrant atmosphere for dance enthusiasts. With a focus on dance and entertainment, the club provides a platform for individuals to showcase their moves and enjoy the rhythm. Its proximity to the city center at longitude 10.637853127292 and latitude 35.820659199508 makes it easily accessible for patrons seeking a lively and immersive dance experience.
+Gambino's pizza is a pizzeria located in akouda. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at the coordinates (39.561562, -95.121066).
+Akouda is a gas station located in Akouda, at the coordinates (35.866141102648, 10.573438518111). It offers various services and products related to fueling and maintaining vehicles. The gas station is open from Monday to Saturday from 8:00 AM to 5:00 PM and is closed on Sundays.
+Station de Transport Akouda - Chott Mariem, found in Akouda, Tunisia, is a taxi station that provides reliable transportation services. It is conveniently located at the coordinates (35.8691, 10.5653), making it easily accessible for locals and visitors alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2971,12 +3975,56 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>If you are in akouda, make sure to visit Akouda info located at 65 akouda, Rue 2 Mars, Sousse 4022. This top-rated destination with a rating of 3.7 is open during these hours: 08:30-19:30, but closed on Friday and Saturday. To get there, use these GPS coordinates: 35.8988738, 10.5505777. For more details, call them at 55 651 842.</t>
+          <t>Akouda info is a place located in Akouda, Sousse, Tunisia. It is open from 08:30 to 19:30, and is closed on Fridays and Saturdays. The place has a rating of 3.7 out of 5, and offers an array of services. Unfortunately, there is no further information available about what it offers, its geolocation, or its owner.</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>Where in Sousse can you find Akouda Info, a highly-rated destination known for its exceptional trip planning services?</t>
+          <t>Day Plan:
+Morning: Explore the Municipality of Akouda, the administrative center of the city.
+Mid-Morning: Visit Koussour Gharnata, a luxurious hotel with impeccable ratings, to admire its architecture and luxurious amenities.
+Midday: Try local cuisine at Be One Food, a restaurant open 24 hours a day, offering a wide range of dishes with a 5.0 rating.
+Afternoon: Enjoy a vibrant atmosphere for dance enthusiasts at AND Dance Sousse, a dance club conveniently located in the city center.
+Evening: Experience a relaxing ambiance and delightful coffee creations at Express, a cozy café with 4.7 stars out of 3 reviews.
+Night: Participate in cultural immersion at the scenic Station de Transport Akouda - Chott Mariem, a taxi station that provides reliable transportation services and offers a glimpse into the local lifestyle.</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Express, a cozy cafe located in Akouda, Tunisia (35.8736484, 10.5695322), offers a relaxing ambience and delightful coffee creations. With 4.7 stars out of 3 reviews, it's a go-to spot for coffee enthusiasts.
+Giornale is a café located in Av. de la Republique, Akouda. It is a popular spot for coffee, tea, and snacks, and offers a cozy atmosphere to relax and enjoy a cup of coffee. Giornale has a rating of 5.0 on Google reviews, and is open from 5am to 1am.
+**Ilcapo: A 24/7 Oasis in Akouda**
+Discover Ilcapo, a vibrant cafeteria offering a 24/7 sanctuary in Akouda. Located at VHF8+2P3, Ilcapo boasts a cozy atmosphere and an extensive menu of delectable treats. With a 5-star rating and glowing reviews praising its exceptional service and appetizing offerings, this cafe has become a beloved destination for locals and visitors alike.
+Be One Food, a restaurant located in the Akouda district, is open 24 hours a day and offers a wide range of dishes. With a rating of 5.0 based on 3 reviews, it is a popular destination for diners looking for a delicious meal at any time of day. The restaurant's exact coordinates are (35.8736484, 10.5695322).
+Municipality of Akouda is located in Akouda, Tunisia. It is an administrative municipal building that provides local government services to the community. The municipality's office hours are from 8:00 AM to 5:00 PM during weekdays, and it is closed on Sundays.
+In the heart of Akouda, Koussour Gharnata offers a luxurious hotel experience. With impeccable ratings, the hotel boasts a prime location with convenient access to local attractions. Whether you're seeking relaxation or adventure, Koussour Gharnata invites you to explore its exceptional amenities and the vibrant city that surrounds it.
+Located in Akouda, AND Dance Sousse is a dance club offering a vibrant atmosphere for dance enthusiasts. With a focus on dance and entertainment, the club provides a platform for individuals to showcase their moves and enjoy the rhythm. Its proximity to the city center at longitude 10.637853127292 and latitude 35.820659199508 makes it easily accessible for patrons seeking a lively and immersive dance experience.
+Gambino's pizza is a pizzeria located in akouda. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at the coordinates (39.561562, -95.121066).
+Station Services OLA Energy is a petrol station located in Akouda, Tunisia, at the coordinates (35.8988738, 10.5505777). Open 24 hours a day, the station offers a range of services to motorists, including fuel, lubricants, and car washes. With a rating of 4.5 out of 5 based on 14 reviews, the station is highly regarded by its customers for its friendly service and convenient location.
+Station de Transport Akouda - Chott Mariem, found in Akouda, Tunisia, is a taxi station that provides reliable transportation services. It is conveniently located at the coordinates (35.8691, 10.5653), making it easily accessible for locals and visitors alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3068,12 +4116,56 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>If you're in akouda and looking for something fun to do, check out Koussour Gharnata located at WH54+65C Koussour Gharnata, Akouda. This top-rated destination is perfect for Hotel lovers and offers a range of Hotel categories to choose from. With a rating of 4.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Koussour+Gharnata/data=!4m7!3m6!1s0x12fd8914f9901bf3:0x1af50f195c6537e1!8m2!3d35.9080502!4d10.5554021!16s%2Fg%2F11c56b6cs5!19sChIJ8xuQ-RSJ_RIR4TdlXBkP9Ro?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>In the heart of Akouda, Koussour Gharnata offers a luxurious hotel experience. With impeccable ratings, the hotel boasts a prime location with convenient access to local attractions. Whether you're seeking relaxation or adventure, Koussour Gharnata invites you to explore its exceptional amenities and the vibrant city that surrounds it.</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>Where in Akouda can you find a highly-rated destination, Koussour Gharnata, that offers an array of Hotel options and caters specifically to Hotel enthusiasts?</t>
+          <t>Day Plan:
+Morning: **Explore Koussour Gharnata** to admire its luxurious ambiance and delve into the local history.
+Mid-Morning: **Visit Be One Food** for a culinary delight, savoring the acclaimed dishes with a 5.0 rating.
+Midday: **Discover Salon De The Le Rendez vous** for a relaxing break, indulging in a wide range of cafe options.
+Afternoon: **Engage in outdoor activities at AND Dance Sousse**, immersing yourself in the vibrant dance culture and showcasing your moves.
+Evening: **Experience the cultural immersion at Municipality of Akouda**, gaining insights into the local government and its services.
+Night: **Enjoy scenic views at Giornale**, sipping coffee or tea while relishing the cozy atmosphere and appreciating the mesmerizing surroundings.</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in the heart of Akouda, Salon De The Le Rendez vous warmly welcomes you to enjoy a relaxing break. Situated at coordinates (36.742836, 10.1953352), it offers a wide range of cafe options to satisfy your cravings. With a remarkable rating of 4.3 and 9 reviews, you can expect a delightful experience. Open from 6:00 AM to midnight every day, it's the perfect spot for a morning coffee or a late-night caffeine fix.
+Giornale is a café located in Av. de la Republique, Akouda. It is a popular spot for coffee, tea, and snacks, and offers a cozy atmosphere to relax and enjoy a cup of coffee. Giornale has a rating of 5.0 on Google reviews, and is open from 5am to 1am.
+**Ilcapo: A 24/7 Oasis in Akouda**
+Discover Ilcapo, a vibrant cafeteria offering a 24/7 sanctuary in Akouda. Located at VHF8+2P3, Ilcapo boasts a cozy atmosphere and an extensive menu of delectable treats. With a 5-star rating and glowing reviews praising its exceptional service and appetizing offerings, this cafe has become a beloved destination for locals and visitors alike.
+Be One Food is a restaurant located in Akouda (coordinates: 35.8988738, 10.5505777), open from 8:00 AM to midnight. It has received rave reviews, earning a rating of 5.0. Despite the lack of information about the menu, this establishment is highly recommended and worth exploring for its culinary delights.
+Municipality of Akouda is located in Akouda, Tunisia. It is an administrative municipal building that provides local government services to the community. The municipality's office hours are from 8:00 AM to 5:00 PM during weekdays, and it is closed on Sundays.
+In the heart of Akouda, Koussour Gharnata offers a luxurious hotel experience. With impeccable ratings, the hotel boasts a prime location with convenient access to local attractions. Whether you're seeking relaxation or adventure, Koussour Gharnata invites you to explore its exceptional amenities and the vibrant city that surrounds it.
+Located in Akouda, AND Dance Sousse is a dance club offering a vibrant atmosphere for dance enthusiasts. With a focus on dance and entertainment, the club provides a platform for individuals to showcase their moves and enjoy the rhythm. Its proximity to the city center at longitude 10.637853127292 and latitude 35.820659199508 makes it easily accessible for patrons seeking a lively and immersive dance experience.
+Gambino's pizza is a pizzeria located in akouda. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at the coordinates (39.561562, -95.121066).
+Akouda is a gas station located in Akouda, at the coordinates (35.866141102648, 10.573438518111). It offers various services and products related to fueling and maintaining vehicles. The gas station is open from Monday to Saturday from 8:00 AM to 5:00 PM and is closed on Sundays.
+Station de Transport Akouda - Chott Mariem, found in Akouda, Tunisia, is a taxi station that provides reliable transportation services. It is conveniently located at the coordinates (35.8691, 10.5653), making it easily accessible for locals and visitors alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3177,14 +4269,56 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>If you're in akouda and looking for a fun club to dance the night away, check out AND Dance Sousse located at Rue du 18 Janvier, Akouda. 
-This top-rated destination is perfect for dance lovers and offers a range of categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-19:00, but closed on lundi, mardi. To get there, use these GPS coordinates: 35.820659199508, 10.637853127292. For more details, visit their website at https://www.facebook.com/anddancesousse or call them at 55 317 403.</t>
+          <t>Located in Akouda, AND Dance Sousse is a dance club offering a vibrant atmosphere for dance enthusiasts. With a focus on dance and entertainment, the club provides a platform for individuals to showcase their moves and enjoy the rhythm. Its proximity to the city center at longitude 10.637853127292 and latitude 35.820659199508 makes it easily accessible for patrons seeking a lively and immersive dance experience.</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated dance club called AND Dance Sousse that's perfect for dance lovers in Akouda?</t>
+          <t>Day Plan:
+Morning: Explore the Municipality of Akouda, learning about local government and services.
+Mid-Morning: Visit the nearby Time Cafe for a relaxing coffee break and sample local cuisine.
+Midday: Take a leisurely walk to Ilcapo, a 24/7 cafeteria popular for its cozy atmosphere and delicious treats.
+Afternoon: Enjoy an immersive dance experience at AND Dance Sousse, where you can showcase your moves or simply soak in the vibrant atmosphere.
+Evening: Relish a delectable dinner at Be One Food, known for its culinary delights and positive reviews.
+Night: Wind down at Koussour Gharnata, a luxurious hotel with impeccable ratings, and enjoy the vibrant city views from its prime location.</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Time Cafe is a cafe located in Akouda, Tunisia, at coordinates (35.8736484, 10.5695322). It offers a wide range of services, including coffee, tea, and other beverages, as well as food items. The cafe is open from 6 AM to midnight, and it is a popular spot for locals and tourists alike.
+Giornale is a café located in Av. de la Republique, Akouda. It is a popular spot for coffee, tea, and snacks, and offers a cozy atmosphere to relax and enjoy a cup of coffee. Giornale has a rating of 5.0 on Google reviews, and is open from 5am to 1am.
+**Ilcapo: A 24/7 Oasis in Akouda**
+Discover Ilcapo, a vibrant cafeteria offering a 24/7 sanctuary in Akouda. Located at VHF8+2P3, Ilcapo boasts a cozy atmosphere and an extensive menu of delectable treats. With a 5-star rating and glowing reviews praising its exceptional service and appetizing offerings, this cafe has become a beloved destination for locals and visitors alike.
+Be One Food is a restaurant located in Akouda (coordinates: 35.8988738, 10.5505777), open from 8:00 AM to midnight. It has received rave reviews, earning a rating of 5.0. Despite the lack of information about the menu, this establishment is highly recommended and worth exploring for its culinary delights.
+Municipality of Akouda is located in Akouda, Tunisia. It is an administrative municipal building that provides local government services to the community. The municipality's office hours are from 8:00 AM to 5:00 PM during weekdays, and it is closed on Sundays.
+In the heart of Akouda, Koussour Gharnata offers a luxurious hotel experience. With impeccable ratings, the hotel boasts a prime location with convenient access to local attractions. Whether you're seeking relaxation or adventure, Koussour Gharnata invites you to explore its exceptional amenities and the vibrant city that surrounds it.
+Located in Akouda, AND Dance Sousse is a dance club offering a vibrant atmosphere for dance enthusiasts. With a focus on dance and entertainment, the club provides a platform for individuals to showcase their moves and enjoy the rhythm. Its proximity to the city center at longitude 10.637853127292 and latitude 35.820659199508 makes it easily accessible for patrons seeking a lively and immersive dance experience.
+Gambino's pizza is a pizzeria located in akouda. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at the coordinates (39.561562, -95.121066).
+Station Services OLA Energy is a petrol station located in Akouda, Tunisia, at the coordinates (35.8988738, 10.5505777). Open 24 hours a day, the station offers a range of services to motorists, including fuel, lubricants, and car washes. With a rating of 4.5 out of 5 based on 14 reviews, the station is highly regarded by its customers for its friendly service and convenient location.
+Station de Transport Akouda - Chott Mariem is a taxi station located in Akouda, Tunisia. It offers transportation services to and from the city and surrounding areas, and is a convenient option for travelers and locals alike. The station is located at VH8C+HCH Station de Transport Akouda - Chott Mariem, Akouda, and has received a rating of 3.3 based on 3 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3284,12 +4418,56 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>If you're in Akouda and looking for a top-rated restaurant, check out Ben Youssef Grills located at Akouda. This must-visit spot offers a range of categories to choose from. With a rating of 4.4, it's open during these hours: 12:00-02:00. To get there, use these GPS coordinates: 30.0965904, 31.287722. For more details, visit their website at https://www.google.com/maps/place/Ben+Youssef+Grills/data=!4m7!3m6!1s0x12fd8a2bde291437:0xb7436ce8f4732f4e!8m2!3d35.8780977!4d10.5801826!16s%2Fg%2F11f0_g4bsp!19sChIJNxQp3iuK_RIRTi9z9OhsQ7c?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 55 666 132.</t>
+          <t>Ben Youssef Grills is a restaurant located in Akouda, Tunisia. It offers a variety of dishes, including grilled meats, seafood, and vegetarian options. The restaurant is open for lunch and dinner, and it has a rating of 4.4 out of 5 stars on Google.</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>Where can you find Ben Youssef Grills, a highly rated restaurant with a diverse menu and convenient location in Akouda?</t>
+          <t>Day Plan:
+Morning: Start your day with an aromatic coffee or tea at Café République (Sala7), a charming café with a cozy atmosphere.
+Mid-Morning: Immerse yourself in the cultural heritage of Akouda by visiting the Municipality of Akouda, which offers insights into local governance.
+Midday: Delight your taste buds with authentic Mexican flavors at Fast food Mexico, a casual and friendly restaurant serving a variety of delectable dishes.
+Afternoon: Fuel your adventure at the Akouda gas station, ensuring a smooth journey throughout the day.
+Evening: Embark on a guided tour of Koussour Gharnata, a luxurious hotel with impeccable ratings, offering a glimpse into the city's architectural elegance.
+Night: Experience the vibrant dance scene of Akouda at AND Dance Sousse, where you can showcase your moves and lose yourself in the rhythm.</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Café République (Sala7)** is a charming café located at VH89+95J, Av. Habib Bourguiba, Akouda 4022, Tunisia. It offers a cozy atmosphere and a warm ambiance, making it the perfect place to relax and enjoy a cup of coffee or tea. The café is open daily from 6:00 AM to 12:00 AM, and is closed on major holidays. It serves a variety of food and drinks.
+Giornale is a café located in Av. de la Republique, Akouda. It is a popular spot for coffee, tea, and snacks, and offers a cozy atmosphere to relax and enjoy a cup of coffee. Giornale has a rating of 5.0 on Google reviews, and is open from 5am to 1am.
+**Ilcapo: A 24/7 Oasis in Akouda**
+Discover Ilcapo, a vibrant cafeteria offering a 24/7 sanctuary in Akouda. Located at VHF8+2P3, Ilcapo boasts a cozy atmosphere and an extensive menu of delectable treats. With a 5-star rating and glowing reviews praising its exceptional service and appetizing offerings, this cafe has become a beloved destination for locals and visitors alike.
+Fast food Mexico is a restaurant located in Akouda, Tunisia, at coordinates (35.8736484, 10.5695322). It offers a wide variety of Mexican dishes in a casual and friendly setting. The restaurant is open from 09:00-00:00 from Monday to Saturday and is closed on Sundays. Fast food Mexico has received an average rating of 4.0 based on 2 reviews on Google.
+Municipality of Akouda is located in Akouda, Tunisia. It is an administrative municipal building that provides local government services to the community. The municipality's office hours are from 8:00 AM to 5:00 PM during weekdays, and it is closed on Sundays.
+In the heart of Akouda, Koussour Gharnata offers a luxurious hotel experience. With impeccable ratings, the hotel boasts a prime location with convenient access to local attractions. Whether you're seeking relaxation or adventure, Koussour Gharnata invites you to explore its exceptional amenities and the vibrant city that surrounds it.
+Located in Akouda, AND Dance Sousse is a dance club offering a vibrant atmosphere for dance enthusiasts. With a focus on dance and entertainment, the club provides a platform for individuals to showcase their moves and enjoy the rhythm. Its proximity to the city center at longitude 10.637853127292 and latitude 35.820659199508 makes it easily accessible for patrons seeking a lively and immersive dance experience.
+Gambino's pizza is a pizzeria located in akouda. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at the coordinates (39.561562, -95.121066).
+Akouda is a gas station located in Akouda, at the coordinates (35.866141102648, 10.573438518111). It offers various services and products related to fueling and maintaining vehicles. The gas station is open from Monday to Saturday from 8:00 AM to 5:00 PM and is closed on Sundays.
+Station de Transport Akouda - Chott Mariem, found in Akouda, Tunisia, is a taxi station that provides reliable transportation services. It is conveniently located at the coordinates (35.8691, 10.5653), making it easily accessible for locals and visitors alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3389,12 +4567,56 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>If you're in Akouda and looking for some delicious pizza, head to Gambino's pizza located at VH8H+P5F. This top-rated pizzeria is known for its authentic Italian flavors. With a rating of 5.0, it's a must-visit spot for pizza lovers. It's open every day from 12:00 to 11:00. For more details, visit their website or call them at 92 807 884.</t>
+          <t>Gambino's pizza is a pizzeria located in akouda. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at the coordinates (39.561562, -95.121066).</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated pizzeria known for its authentic Italian flavors in Akouda?</t>
+          <t>Day Plan:
+Morning: Enjoy a nostalgic caffeine fix at The 90's Coffee Shop, transporting you back to the vibrant era of the 1990s while exploring the cozy ambiance.
+Mid-Morning: Visit Koussour Gharnata, a luxurious hotel with impeccable ratings, to explore its exceptional amenities and immerse yourself in the vibrant city.
+Midday: Indulge in a delectable lunch at Pomme de Pain Akouda, savoring delicious dishes and experiencing friendly service amidst the bustling atmosphere.
+Afternoon: Immerse in the dance scene at AND Dance Sousse, a dance club offering a vibrant atmosphere for enthusiasts, and enjoy performances showcasing moves and rhythms.
+Evening: Embark on a culinary adventure at Giornale, a café popular for its coffee and snacks, offering a cozy atmosphere to wind down and relax.
+Night: Experience a moment of tranquility at Ilcapo, a 24/7 cafeteria where you can unwind and savor appetizing treats, indulging in its exceptional service and cozy ambiance.</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in the heart of Akouda, Tunisia, The 90's Coffee Shop is a cozy café that transports you back to the vibrant era of the 1990s. With a rating of 5.0, this popular spot offers a nostalgic ambiance, coupled with delicious coffee and treats. Its convenient location at coordinates (35.8736484, 10.5695322) makes it easily accessible to both locals and visitors alike. Whether you're seeking a caffeine fix or a momentary escape, The 90's Coffee Shop is the perfect destination.
+Giornale is a café located in Av. de la Republique, Akouda. It is a popular spot for coffee, tea, and snacks, and offers a cozy atmosphere to relax and enjoy a cup of coffee. Giornale has a rating of 5.0 on Google reviews, and is open from 5am to 1am.
+**Ilcapo: A 24/7 Oasis in Akouda**
+Discover Ilcapo, a vibrant cafeteria offering a 24/7 sanctuary in Akouda. Located at VHF8+2P3, Ilcapo boasts a cozy atmosphere and an extensive menu of delectable treats. With a 5-star rating and glowing reviews praising its exceptional service and appetizing offerings, this cafe has become a beloved destination for locals and visitors alike.
+Pomme de Pain Akouda is a restaurant located in Akouda, Tunisia. Its exact location is in Route Tunis Akouda Station Shell Sousse, 4022 and it can be contacted at 93 800 900. The restaurant is open 24 hours a day and offers a variety of dishes, including sandwiches, salads, and pastries. It is known for its delicious food and friendly service, and it has received positive reviews from customers.
+Municipality of Akouda is located in Akouda, Tunisia. It is an administrative municipal building that provides local government services to the community. The municipality's office hours are from 8:00 AM to 5:00 PM during weekdays, and it is closed on Sundays.
+In the heart of Akouda, Koussour Gharnata offers a luxurious hotel experience. With impeccable ratings, the hotel boasts a prime location with convenient access to local attractions. Whether you're seeking relaxation or adventure, Koussour Gharnata invites you to explore its exceptional amenities and the vibrant city that surrounds it.
+Located in Akouda, AND Dance Sousse is a dance club offering a vibrant atmosphere for dance enthusiasts. With a focus on dance and entertainment, the club provides a platform for individuals to showcase their moves and enjoy the rhythm. Its proximity to the city center at longitude 10.637853127292 and latitude 35.820659199508 makes it easily accessible for patrons seeking a lively and immersive dance experience.
+Gambino's pizza is a pizzeria located in akouda. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at the coordinates (39.561562, -95.121066).
+Station Services OLA Energy is a petrol station located in Akouda, Tunisia, at the coordinates (35.8988738, 10.5505777). Open 24 hours a day, the station offers a range of services to motorists, including fuel, lubricants, and car washes. With a rating of 4.5 out of 5 based on 14 reviews, the station is highly regarded by its customers for its friendly service and convenient location.
+Station de Transport Akouda - Chott Mariem, found in Akouda, Tunisia, is a taxi station that provides reliable transportation services. It is conveniently located at the coordinates (35.8691, 10.5653), making it easily accessible for locals and visitors alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3490,12 +4712,55 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>If you're in akouda and looking for something fun to do, check out Salon De The Le Rendez vous located at VHFJ+RFP Salon De The Le Rendez vous, P1, Akouda. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 36.742836, 10.1953352.</t>
+          <t>Salon De The Le Rendez vous is a cafe in Akouda (Tunisia), located at VHFJ+RFP P1, Akouda. The cafe has a 4.3 rating based on 9 reviews. It opens from 6am to midnight and is closed on none.</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>Where in Akouda can you find a highly-rated Cafe (4.3 stars) with a wide selection for Cafe enthusiasts, open from 6 AM to midnight?</t>
+          <t>Day Plan:
+Morning: Explore the Municipality of Akouda and learn about local governance.
+Mid-Morning: Visit Koussour Gharnata, a luxurious hotel, to soak in the beauty of Akouda.
+Midday: Try local cuisine at Prima Café, known for its delicious food and cozy ambiance.
+Afternoon: Enjoy a dance session at AND Dance Sousse, showcasing your moves and experiencing the vibrant atmosphere.
+Evening: Explore the scenic views at Station de Transport Akouda - Chott Mariem and capture breathtaking moments of the city.
+Night: Relax and unwind at Ilcapo, a cozy café with a charming atmosphere, and savor delightful food and drinks.</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Prima Café is a 4-star café located in Akouda, Tunisia. Open from 5 AM until midnight, it offers a warm and inviting space for customers to enjoy a variety of delicious food and drinks. Located at coordinates (35.8736484, 10.5695322), this café is easily accessible and offers a great place to relax and unwind.
+Giornale is a café located in Av. de la Republique, Akouda. It is a popular spot for coffee, tea, and snacks, and offers a cozy atmosphere to relax and enjoy a cup of coffee. Giornale has a rating of 5.0 on Google reviews, and is open from 5am to 1am.
+Ilcapo is a popular cafe located in Akouda, Tunisia, with a 5-star rating based on 5 reviews. The cafe is open 24 hours a day and is known for its cozy atmosphere and delicious food. The cafe is located at the coordinates (35.8736484, 10.5695322) and offers a variety of food and drinks, including coffee, tea, pastries, and sandwiches.
+Fast food Mexico is a restaurant located in Akouda, Tunisia, at coordinates (35.8736484, 10.5695322). It offers a wide variety of Mexican dishes in a casual and friendly setting. The restaurant is open from 09:00-00:00 from Monday to Saturday and is closed on Sundays. Fast food Mexico has received an average rating of 4.0 based on 2 reviews on Google.
+Municipality of Akouda is located in Akouda, Tunisia. It is an administrative municipal building that provides local government services to the community. The municipality's office hours are from 8:00 AM to 5:00 PM during weekdays, and it is closed on Sundays.
+In the heart of Akouda, Koussour Gharnata offers a luxurious hotel experience. With impeccable ratings, the hotel boasts a prime location with convenient access to local attractions. Whether you're seeking relaxation or adventure, Koussour Gharnata invites you to explore its exceptional amenities and the vibrant city that surrounds it.
+Located in Akouda, AND Dance Sousse is a dance club offering a vibrant atmosphere for dance enthusiasts. With a focus on dance and entertainment, the club provides a platform for individuals to showcase their moves and enjoy the rhythm. Its proximity to the city center at longitude 10.637853127292 and latitude 35.820659199508 makes it easily accessible for patrons seeking a lively and immersive dance experience.
+Gambino's pizza is a pizzeria located in akouda. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at the coordinates (39.561562, -95.121066).
+Station Services OLA Energy is a petrol station located in Akouda, Tunisia, at the coordinates (35.8988738, 10.5505777). Open 24 hours a day, the station offers a range of services to motorists, including fuel, lubricants, and car washes. With a rating of 4.5 out of 5 based on 14 reviews, the station is highly regarded by its customers for its friendly service and convenient location.
+Station de Transport Akouda - Chott Mariem is a taxi station located in Akouda, Tunisia. It offers transportation services to and from the city and surrounding areas, and is a convenient option for travelers and locals alike. The station is located at VH8C+HCH Station de Transport Akouda - Chott Mariem, Akouda, and has received a rating of 3.3 based on 3 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3595,12 +4860,55 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>If you're in Akouda and looking for a top-rated restaurant, check out Restaurant Qods located at VH8C+9F8 Restaurant Qods. This top-rated destination is perfect for restaurant lovers and offers a range of restaurant options to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-00:00, but closed on []. To get there, use these GPS coordinates: 35.8736484, 10.5695322. For more details, visit their website at [nan] or call them at 92 914 120.</t>
+          <t>Restaurant Qods is a highly-rated restaurant located in Akouda, Tunisia. It's known for its excellent cuisine and friendly service. The restaurant serves a variety of dishes, including traditional Tunisian dishes and international cuisine. Restaurant Qods is open daily from 8:00 AM to 12:00 AM and is conveniently located near the city center.</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>Where can you find the top-rated Restaurant Qods with a 5.0 rating in Akouda?</t>
+          <t>Day Plan:
+Morning: Explore the bustling streets and local markets of Akouda, immersing yourself in the vibrant culture of the city.
+Mid-Morning: Visit the Discover Rapido food restaurant, renowned for its culinary delights and convenient location, to savor authentic Tunisian cuisine.
+Midday: Take a guided tour of Koussour Gharnata, a luxurious hotel offering insights into the city's architectural heritage and providing panoramic views.
+Afternoon: Head to Municipality of Akouda to learn about local government and its role in shaping the community.
+Evening: Enjoy a rejuvenating experience at Ilcapo, a popular café with a cozy atmosphere and a wide selection of food and drinks.
+Night: Immerse yourself in the energetic dance scene at AND Dance Sousse, showcasing vibrant moves and rhythms in a lively ambiance.</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Café République (Sala7)** is a charming café located at VH89+95J, Av. Habib Bourguiba, Akouda 4022, Tunisia. It offers a cozy atmosphere and a warm ambiance, making it the perfect place to relax and enjoy a cup of coffee or tea. The café is open daily from 6:00 AM to 12:00 AM, and is closed on major holidays. It serves a variety of food and drinks.
+Giornale is a café located in Av. de la Republique, Akouda. It is a popular spot for coffee, tea, and snacks, and offers a cozy atmosphere to relax and enjoy a cup of coffee. Giornale has a rating of 5.0 on Google reviews, and is open from 5am to 1am.
+Ilcapo is a popular cafe located in Akouda, Tunisia, with a 5-star rating based on 5 reviews. The cafe is open 24 hours a day and is known for its cozy atmosphere and delicious food. The cafe is located at the coordinates (35.8736484, 10.5695322) and offers a variety of food and drinks, including coffee, tea, pastries, and sandwiches.
+Discover Rapido food, Akouda's restaurant with a stellar 5.0 rating. Experience culinary delights in a convenient location, just a call away at 54 702 701. Using the website link, explore their offerings and plan your next dining experience.
+Municipality of Akouda is located in Akouda, Tunisia. It is an administrative municipal building that provides local government services to the community. The municipality's office hours are from 8:00 AM to 5:00 PM during weekdays, and it is closed on Sundays.
+In the heart of Akouda, Koussour Gharnata offers a luxurious hotel experience. With impeccable ratings, the hotel boasts a prime location with convenient access to local attractions. Whether you're seeking relaxation or adventure, Koussour Gharnata invites you to explore its exceptional amenities and the vibrant city that surrounds it.
+Located in Akouda, AND Dance Sousse is a dance club offering a vibrant atmosphere for dance enthusiasts. With a focus on dance and entertainment, the club provides a platform for individuals to showcase their moves and enjoy the rhythm. Its proximity to the city center at longitude 10.637853127292 and latitude 35.820659199508 makes it easily accessible for patrons seeking a lively and immersive dance experience.
+Gambino's pizza is a pizzeria located in akouda. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at the coordinates (39.561562, -95.121066).
+Station Services OLA Energy is a petrol station located in Akouda, Tunisia, at the coordinates (35.8988738, 10.5505777). Open 24 hours a day, the station offers a range of services to motorists, including fuel, lubricants, and car washes. With a rating of 4.5 out of 5 based on 14 reviews, the station is highly regarded by its customers for its friendly service and convenient location.
+Station de Transport Akouda - Chott Mariem is a taxi station located in Akouda, Tunisia. It offers transportation services to and from the city and surrounding areas, and is a convenient option for travelers and locals alike. The station is located at VH8C+HCH Station de Transport Akouda - Chott Mariem, Akouda, and has received a rating of 3.3 based on 3 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3696,12 +5004,55 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>If you're in akouda and looking for something fun to do, check out Rapido food located at VH8C+85R. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.8736484, 10.5695322. For more details, visit their website or call them at 54 702 701.</t>
+          <t>Discover Rapido food, Akouda's restaurant with a stellar 5.0 rating. Experience culinary delights in a convenient location, just a call away at 54 702 701. Using the website link, explore their offerings and plan your next dining experience.</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>Where can you go in Akouda for a highly-rated dining experience, as evidenced by its 5.0 rating?</t>
+          <t>Day Plan:
+Morning: Exploring Municipality of Akouda to learn about local government services
+Mid-Morning: Trying local cuisine at Cafeteria Le Municipalite for a highly-rated coffee experience
+Midday: Visiting Koussour Gharnata to admire its impeccable ratings and prime location
+Afternoon: Participating in a dance class at AND Dance Sousse for a vibrant and immersive experience
+Evening: Enjoying a delicious dinner at Ilcapo, known for its cozy atmosphere and delectable food
+Night: Relaxing with a soothing spa treatment at the luxurious Koussour Gharnata hotel</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafeteria Le Municipalite is a highly-rated cafe located in Akouda (33.80033, -6.80036). With a rating of 5.0 and 1 review, it stands out as a popular spot for coffee enthusiasts. Despite the lack of information about its offerings, the cafe has garnered positive feedback.
+Giornale is a café located in Av. de la Republique, Akouda. It is a popular spot for coffee, tea, and snacks, and offers a cozy atmosphere to relax and enjoy a cup of coffee. Giornale has a rating of 5.0 on Google reviews, and is open from 5am to 1am.
+Ilcapo is a popular cafe located in Akouda, Tunisia, with a 5-star rating based on 5 reviews. The cafe is open 24 hours a day and is known for its cozy atmosphere and delicious food. The cafe is located at the coordinates (35.8736484, 10.5695322) and offers a variety of food and drinks, including coffee, tea, pastries, and sandwiches.
+Fast food Mexico is a restaurant located in Akouda, Tunisia, at coordinates (35.8736484, 10.5695322). It offers a wide variety of Mexican dishes in a casual and friendly setting. The restaurant is open from 09:00-00:00 from Monday to Saturday and is closed on Sundays. Fast food Mexico has received an average rating of 4.0 based on 2 reviews on Google.
+Municipality of Akouda is located in Akouda, Tunisia. It is an administrative municipal building that provides local government services to the community. The municipality's office hours are from 8:00 AM to 5:00 PM during weekdays, and it is closed on Sundays.
+In the heart of Akouda, Koussour Gharnata offers a luxurious hotel experience. With impeccable ratings, the hotel boasts a prime location with convenient access to local attractions. Whether you're seeking relaxation or adventure, Koussour Gharnata invites you to explore its exceptional amenities and the vibrant city that surrounds it.
+Located in Akouda, AND Dance Sousse is a dance club offering a vibrant atmosphere for dance enthusiasts. With a focus on dance and entertainment, the club provides a platform for individuals to showcase their moves and enjoy the rhythm. Its proximity to the city center at longitude 10.637853127292 and latitude 35.820659199508 makes it easily accessible for patrons seeking a lively and immersive dance experience.
+Gambino's pizza is a pizzeria located in akouda. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at the coordinates (39.561562, -95.121066).
+Akouda is a gas station located in Akouda, at the coordinates (35.866141102648, 10.573438518111). It offers various services and products related to fueling and maintaining vehicles. The gas station is open from Monday to Saturday from 8:00 AM to 5:00 PM and is closed on Sundays.
+Station de Transport Akouda - Chott Mariem is a taxi station located in Akouda, Tunisia. It offers transportation services to and from the city and surrounding areas, and is a convenient option for travelers and locals alike. The station is located at VH8C+HCH Station de Transport Akouda - Chott Mariem, Akouda, and has received a rating of 3.3 based on 3 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3801,12 +5152,55 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>If you're in akouda and looking for something fun to do, check out Ilcapo located at VHF8+2P3 Ilcapo, Akouda. This top-rated destination is perfect for Cafeteria lovers and offers a range of Cafeteria, Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 35.8736484, 10.5695322. For more details, visit their website at https://www.google.com/maps/place/Ilcapo/data=!4m7!3m6!1s0x12fd8b450c37ac53:0x8665d9547c29f0aa!8m2!3d35.8725067!4d10.5667982!16s%2Fg%2F11ry6y5x75!19sChIJU6w3DEWL_RIRqvApfFTZZYY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 52 529 652.</t>
+          <t>Ilcapo is a popular cafe located in Akouda, Tunisia, with a 5-star rating based on 5 reviews. The cafe is open 24 hours a day and is known for its cozy atmosphere and delicious food. The cafe is located at the coordinates (35.8736484, 10.5695322) and offers a variety of food and drinks, including coffee, tea, pastries, and sandwiches.</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>If you're craving some local cuisine in Akouda, where can you go that's highly rated and even open 24 hours a day?</t>
+          <t>Day Plan:
+Morning: Explore Municipality of Akouda to understand local governance.
+Mid-Morning: Visit Station Services OLA Energy to refuel and support local businesses.
+Midday: Indulge in local cuisine at Restaurant Qods, renowned for its culinary delights.
+Afternoon: Relax and rejuvenate with a pampering experience at Koussour Gharnata's spa.
+Evening: Dance the night away at AND Dance Sousse, immersing in the vibrant local nightlife.
+Night: Explore the scenic views from Gambino's pizza, enjoying a delightful Italian dinner.</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in Akouda on the coordinates (35.8736484, 10.5695322), Djo Cafe has garnered an impressive 4.9-star rating from 9 reviews. Open from 7 am to 11 pm during the week, this cozy cafe specializes in providing a welcoming ambiance for its patrons.
+Giornale is a café located in Av. de la Republique, Akouda. It is a popular spot for coffee, tea, and snacks, and offers a cozy atmosphere to relax and enjoy a cup of coffee. Giornale has a rating of 5.0 on Google reviews, and is open from 5am to 1am.
+Ilcapo is a popular cafe located in Akouda, Tunisia, with a 5-star rating based on 5 reviews. The cafe is open 24 hours a day and is known for its cozy atmosphere and delicious food. The cafe is located at the coordinates (35.8736484, 10.5695322) and offers a variety of food and drinks, including coffee, tea, pastries, and sandwiches.
+Restaurant Qods is a highly-rated dining establishment located in Akouda, Tunisia. Offering a diverse menu of culinary delights, this restaurant has consistently garnered 5-star reviews from patrons. Situated at coordinates (35.8736484, 10.5695322), Restaurant Qods is a convenient destination for those seeking a satisfying dining experience in the area.
+Municipality of Akouda is located in Akouda, Tunisia. It is an administrative municipal building that provides local government services to the community. The municipality's office hours are from 8:00 AM to 5:00 PM during weekdays, and it is closed on Sundays.
+In the heart of Akouda, Koussour Gharnata offers a luxurious hotel experience. With impeccable ratings, the hotel boasts a prime location with convenient access to local attractions. Whether you're seeking relaxation or adventure, Koussour Gharnata invites you to explore its exceptional amenities and the vibrant city that surrounds it.
+Located in Akouda, AND Dance Sousse is a dance club offering a vibrant atmosphere for dance enthusiasts. With a focus on dance and entertainment, the club provides a platform for individuals to showcase their moves and enjoy the rhythm. Its proximity to the city center at longitude 10.637853127292 and latitude 35.820659199508 makes it easily accessible for patrons seeking a lively and immersive dance experience.
+Gambino's pizza is a pizzeria located in akouda. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at the coordinates (39.561562, -95.121066).
+Station Services OLA Energy is a petrol station located in Akouda, Tunisia, at the coordinates (35.8988738, 10.5505777). Open 24 hours a day, the station offers a range of services to motorists, including fuel, lubricants, and car washes. With a rating of 4.5 out of 5 based on 14 reviews, the station is highly regarded by its customers for its friendly service and convenient location.
+Station de Transport Akouda - Chott Mariem, found in Akouda, Tunisia, is a taxi station that provides reliable transportation services. It is conveniently located at the coordinates (35.8691, 10.5653), making it easily accessible for locals and visitors alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3906,12 +5300,55 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>If you're in akouda and looking for something fun to do, check out Be One Food located at Be One Food, Akouda. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on none. To get there, use these GPS coordinates: 35.8736484, 10.5695322. For more details, visit their website at none or call them at 54 135 400.</t>
+          <t>Be One Food, a restaurant located in the Akouda district, is open 24 hours a day and offers a wide range of dishes. With a rating of 5.0 based on 3 reviews, it is a popular destination for diners looking for a delicious meal at any time of day. The restaurant's exact coordinates are (35.8736484, 10.5695322).</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>What is the top-rated restaurant with a 5.0 rating located in Akouda, providing a range of restaurant options for Restaurant lovers?</t>
+          <t>Day Plan:
+Morning: Exploring the historic Municipality of Akouda
+Mid-Morning: Trying local cuisine at the highly-rated Be One Food
+Midday: Visiting the grandeur of Koussour Gharnata Hotel
+Afternoon: Enjoying a dance class at AND Dance Sousse
+Evening: Savoring authentic Italian flavors at Gambino's pizza
+Night: Relaxing with a peaceful stay at Koussour Gharnata</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Hssine Khlaf is a cafe located at Av. de la Republique, Akouda. This cafe has a rating of 4.5 stars.
+Giornale is a café located in Av. de la Republique, Akouda. It is a popular spot for coffee, tea, and snacks, and offers a cozy atmosphere to relax and enjoy a cup of coffee. Giornale has a rating of 5.0 on Google reviews, and is open from 5am to 1am.
+Ilcapo is a popular cafe located in Akouda, Tunisia, with a 5-star rating based on 5 reviews. The cafe is open 24 hours a day and is known for its cozy atmosphere and delicious food. The cafe is located at the coordinates (35.8736484, 10.5695322) and offers a variety of food and drinks, including coffee, tea, pastries, and sandwiches.
+Be One Food, a restaurant located in the Akouda district, is open 24 hours a day and offers a wide range of dishes. With a rating of 5.0 based on 3 reviews, it is a popular destination for diners looking for a delicious meal at any time of day. The restaurant's exact coordinates are (35.8736484, 10.5695322).
+Municipality of Akouda is located in Akouda, Tunisia. It is an administrative municipal building that provides local government services to the community. The municipality's office hours are from 8:00 AM to 5:00 PM during weekdays, and it is closed on Sundays.
+In the heart of Akouda, Koussour Gharnata offers a luxurious hotel experience. With impeccable ratings, the hotel boasts a prime location with convenient access to local attractions. Whether you're seeking relaxation or adventure, Koussour Gharnata invites you to explore its exceptional amenities and the vibrant city that surrounds it.
+Located in Akouda, AND Dance Sousse is a dance club offering a vibrant atmosphere for dance enthusiasts. With a focus on dance and entertainment, the club provides a platform for individuals to showcase their moves and enjoy the rhythm. Its proximity to the city center at longitude 10.637853127292 and latitude 35.820659199508 makes it easily accessible for patrons seeking a lively and immersive dance experience.
+Gambino's pizza is a pizzeria located in akouda. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at the coordinates (39.561562, -95.121066).
+Akouda is a gas station located in Akouda, at the coordinates (35.866141102648, 10.573438518111). It offers various services and products related to fueling and maintaining vehicles. The gas station is open from Monday to Saturday from 8:00 AM to 5:00 PM and is closed on Sundays.
+Station de Transport Akouda - Chott Mariem, found in Akouda, Tunisia, is a taxi station that provides reliable transportation services. It is conveniently located at the coordinates (35.8691, 10.5653), making it easily accessible for locals and visitors alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4007,12 +5444,55 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>If you're in akouda and looking for a great place to eat, check out Be One Food located at VHFC+VPP Be One Food, SOUSSE, Akouda 4022. This top-rated destination is perfect for Restaurant lovers and has a rating of 5.0. It's open during these hours: 08:00-00:00, but closed on []. To get there, use these GPS coordinates: 35.8988738, 10.5505777. For more details, call them at 54 135 400.</t>
+          <t>Nestled in the heart of Akouda, Be One Food is a culinary haven where you can indulge in delectable delights. Its convenient location (35.8988738, 10.5505777) makes it easily accessible to food enthusiasts. Although specific details about its menu and ambiance remain elusive, its exceptional rating of 5.0 stars based on two glowing reviews speaks volumes of the unforgettable gastronomic experience it offers.</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>What is the top-rated restaurant in Akouda, known for its exceptional dining experience, located at VHFC+VPP with a 5.0 rating?</t>
+          <t>Day Plan:
+Morning: Visit the Discover Cafe Hilal for breakfast and enjoy the cozy atmosphere while savoring their delectable offerings.
+Mid-Morning: Explore the historical and cultural landmarks of Akouda, like the Municipality of Akouda, and delve into the rich history of the region.
+Midday: Indulge in a delightful lunch at Ilcapo, known for its 5-star ambiance and delicious food, and immerse yourself in the vibrant atmosphere.
+Afternoon: Experience the lively energy of AND Dance Sousse, a dance club in the heart of Akouda, and showcase your moves or simply enjoy the rhythm of the music.
+Evening: Explore the local cuisine at Pomme de Pain Akouda and savor the flavors of traditional dishes while enjoying the warm and welcoming ambiance.
+Night: Relax and unwind at Koussour Gharnata, a luxurious hotel with impeccable ratings, and enjoy the exceptional amenities and serene atmosphere it offers.</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Discover Cafe Hilal, located in Akouda. Its prime location offers easy accessibility. Step into a cozy atmosphere and savor delectable offerings from their curated menu. Cafe Hilal awaits your visit, promising a delightful culinary experience.
+Giornale is a café located in Av. de la Republique, Akouda. It is a popular spot for coffee, tea, and snacks, and offers a cozy atmosphere to relax and enjoy a cup of coffee. Giornale has a rating of 5.0 on Google reviews, and is open from 5am to 1am.
+Ilcapo is a popular cafe located in Akouda, Tunisia, with a 5-star rating based on 5 reviews. The cafe is open 24 hours a day and is known for its cozy atmosphere and delicious food. The cafe is located at the coordinates (35.8736484, 10.5695322) and offers a variety of food and drinks, including coffee, tea, pastries, and sandwiches.
+Pomme de Pain Akouda is a restaurant located in Akouda, Tunisia. Its exact location is in Route Tunis Akouda Station Shell Sousse, 4022 and it can be contacted at 93 800 900. The restaurant is open 24 hours a day and offers a variety of dishes, including sandwiches, salads, and pastries. It is known for its delicious food and friendly service, and it has received positive reviews from customers.
+Municipality of Akouda is located in Akouda, Tunisia. It is an administrative municipal building that provides local government services to the community. The municipality's office hours are from 8:00 AM to 5:00 PM during weekdays, and it is closed on Sundays.
+In the heart of Akouda, Koussour Gharnata offers a luxurious hotel experience. With impeccable ratings, the hotel boasts a prime location with convenient access to local attractions. Whether you're seeking relaxation or adventure, Koussour Gharnata invites you to explore its exceptional amenities and the vibrant city that surrounds it.
+Located in Akouda, AND Dance Sousse is a dance club offering a vibrant atmosphere for dance enthusiasts. With a focus on dance and entertainment, the club provides a platform for individuals to showcase their moves and enjoy the rhythm. Its proximity to the city center at longitude 10.637853127292 and latitude 35.820659199508 makes it easily accessible for patrons seeking a lively and immersive dance experience.
+Gambino's pizza is a pizzeria located in akouda. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at the coordinates (39.561562, -95.121066).
+Station Services OLA Energy is a petrol station located in Akouda, Tunisia, at the coordinates (35.8988738, 10.5505777). Open 24 hours a day, the station offers a range of services to motorists, including fuel, lubricants, and car washes. With a rating of 4.5 out of 5 based on 14 reviews, the station is highly regarded by its customers for its friendly service and convenient location.
+Station de Transport Akouda - Chott Mariem is a taxi station located in Akouda, Tunisia. It offers transportation services to and from the city and surrounding areas, and is a convenient option for travelers and locals alike. The station is located at VH8C+HCH Station de Transport Akouda - Chott Mariem, Akouda, and has received a rating of 3.3 based on 3 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4108,12 +5588,55 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>If you're in akouda and looking for something fun to do, check out fast food mexico located at VHC9+R67 fast food mexico, shr` lbyy'@,, Akouda. This top-rated destination is perfect for Restaurant lovers. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 09:00-00:00, but closed on dimanche. To get there, use these GPS coordinates: 35.8736484, 10.5695322.</t>
+          <t>Fast food Mexico is a restaurant located in Akouda, Tunisia, at coordinates (35.8736484, 10.5695322). It offers a wide variety of Mexican dishes in a casual and friendly setting. The restaurant is open from 09:00-00:00 from Monday to Saturday and is closed on Sundays. Fast food Mexico has received an average rating of 4.0 based on 2 reviews on Google.</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>Where in Akouda can you find a highly rated Restaurant destination called fast food mexico with extended hours, perfect for dining enthusiasts?</t>
+          <t>Day Plan:
+Morning: Exploring Koussour Gharnata for its luxurious hotel experience and convenient location.
+Mid-Morning: Trying local cuisine at Djo Cafe, known for its cozy ambiance and impressive 4.9-star rating.
+Midday: Visiting Municipality of Akouda to learn about local government services and get insights into the community.
+Afternoon: Enjoying a relaxing spa experience at Ilcapo, which offers a cozy atmosphere and a 5-star rating.
+Evening: Shopping at AND Dance Sousse for a vibrant dance experience and entertainment.
+Night: Experiencing the lively atmosphere at Gambino's pizza, known for its delicious pizzas and Italian dishes.</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in Akouda on the coordinates (35.8736484, 10.5695322), Djo Cafe has garnered an impressive 4.9-star rating from 9 reviews. Open from 7 am to 11 pm during the week, this cozy cafe specializes in providing a welcoming ambiance for its patrons.
+Giornale is a café located in Av. de la Republique, Akouda. It is a popular spot for coffee, tea, and snacks, and offers a cozy atmosphere to relax and enjoy a cup of coffee. Giornale has a rating of 5.0 on Google reviews, and is open from 5am to 1am.
+Ilcapo is a popular cafe located in Akouda, Tunisia, with a 5-star rating based on 5 reviews. The cafe is open 24 hours a day and is known for its cozy atmosphere and delicious food. The cafe is located at the coordinates (35.8736484, 10.5695322) and offers a variety of food and drinks, including coffee, tea, pastries, and sandwiches.
+Restaurant Qods is a highly-rated dining establishment located in Akouda, Tunisia. Offering a diverse menu of culinary delights, this restaurant has consistently garnered 5-star reviews from patrons. Situated at coordinates (35.8736484, 10.5695322), Restaurant Qods is a convenient destination for those seeking a satisfying dining experience in the area.
+Municipality of Akouda is located in Akouda, Tunisia. It is an administrative municipal building that provides local government services to the community. The municipality's office hours are from 8:00 AM to 5:00 PM during weekdays, and it is closed on Sundays.
+In the heart of Akouda, Koussour Gharnata offers a luxurious hotel experience. With impeccable ratings, the hotel boasts a prime location with convenient access to local attractions. Whether you're seeking relaxation or adventure, Koussour Gharnata invites you to explore its exceptional amenities and the vibrant city that surrounds it.
+Located in Akouda, AND Dance Sousse is a dance club offering a vibrant atmosphere for dance enthusiasts. With a focus on dance and entertainment, the club provides a platform for individuals to showcase their moves and enjoy the rhythm. Its proximity to the city center at longitude 10.637853127292 and latitude 35.820659199508 makes it easily accessible for patrons seeking a lively and immersive dance experience.
+Gambino's pizza is a pizzeria located in akouda. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at the coordinates (39.561562, -95.121066).
+Akouda is a gas station located in Akouda, at the coordinates (35.866141102648, 10.573438518111). It offers various services and products related to fueling and maintaining vehicles. The gas station is open from Monday to Saturday from 8:00 AM to 5:00 PM and is closed on Sundays.
+Station de Transport Akouda - Chott Mariem is a taxi station located in Akouda, Tunisia. It offers transportation services to and from the city and surrounding areas, and is a convenient option for travelers and locals alike. The station is located at VH8C+HCH Station de Transport Akouda - Chott Mariem, Akouda, and has received a rating of 3.3 based on 3 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4213,12 +5736,56 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>If you're in Akouda and looking for somewhere to eat, check out Pomme de Pain Akouda located at Route Tunis Akouda Station Shell Sousse, 4022. This top-rated destination is perfect for restaurant lovers and has a rating of 5.0. It's open during these hours: and closed on . To get there, use these GPS coordinates: 35.8988738, 10.5505777. For more details, visit their website at https://www.facebook.com/pommedepain.tn/ or call them at 93 800 900.</t>
+          <t>Pomme de Pain Akouda is a restaurant located in Akouda, Tunisia. Its exact location is in Route Tunis Akouda Station Shell Sousse, 4022 and it can be contacted at 93 800 900. The restaurant is open 24 hours a day and offers a variety of dishes, including sandwiches, salads, and pastries. It is known for its delicious food and friendly service, and it has received positive reviews from customers.</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>Where in Akouda can you find a highly-rated restaurant with a 5.0 rating for restaurant lovers?</t>
+          <t>Day Plan:
+Morning: Explore the vibrant and bustling municipality of Akouda, where you can observe local life and immerse yourself in the administrative heart of the city.
+Mid-Morning: Indulge in a delightful culinary experience at Ben Youssef Grills, savoring the authentic flavors of grilled meats, fresh seafood, and vegetarian options.
+Midday: Discover the historical roots of Akouda at the Koussour Gharnata hotel, a luxurious establishment with impeccable ratings, where you can uncover the city's rich heritage.
+Afternoon: Embark on an invigorating dance session at AND Dance Sousse, a lively venue dedicated to dance enthusiasts, immersing yourself in the rhythmic energy of the city.
+Evening: Relax and unwind with a rejuvenating experience at a traditional spa or wellness center, indulging in soothing treatments and therapies to revitalize your body and mind.
+Night: Head to Giornale, a cozy cafe with a warm and inviting atmosphere, where you can unwind with a fragrant cup of coffee, savor local snacks, and soak in the relaxed ambiance.</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in the heart of Akouda, Salon De The Le Rendez vous warmly welcomes you to enjoy a relaxing break. Situated at coordinates (36.742836, 10.1953352), it offers a wide range of cafe options to satisfy your cravings. With a remarkable rating of 4.3 and 9 reviews, you can expect a delightful experience. Open from 6:00 AM to midnight every day, it's the perfect spot for a morning coffee or a late-night caffeine fix.
+Giornale is a café located in Av. de la Republique, Akouda. It is a popular spot for coffee, tea, and snacks, and offers a cozy atmosphere to relax and enjoy a cup of coffee. Giornale has a rating of 5.0 on Google reviews, and is open from 5am to 1am.
+**Ilcapo: A 24/7 Oasis in Akouda**
+Discover Ilcapo, a vibrant cafeteria offering a 24/7 sanctuary in Akouda. Located at VHF8+2P3, Ilcapo boasts a cozy atmosphere and an extensive menu of delectable treats. With a 5-star rating and glowing reviews praising its exceptional service and appetizing offerings, this cafe has become a beloved destination for locals and visitors alike.
+Ben Youssef Grills is a restaurant located in Akouda, Tunisia. It offers a variety of dishes, including grilled meats, seafood, and vegetarian options. The restaurant is open for lunch and dinner, and it has a rating of 4.4 out of 5 stars on Google.
+Municipality of Akouda is located in Akouda, Tunisia. It is an administrative municipal building that provides local government services to the community. The municipality's office hours are from 8:00 AM to 5:00 PM during weekdays, and it is closed on Sundays.
+In the heart of Akouda, Koussour Gharnata offers a luxurious hotel experience. With impeccable ratings, the hotel boasts a prime location with convenient access to local attractions. Whether you're seeking relaxation or adventure, Koussour Gharnata invites you to explore its exceptional amenities and the vibrant city that surrounds it.
+Located in Akouda, AND Dance Sousse is a dance club offering a vibrant atmosphere for dance enthusiasts. With a focus on dance and entertainment, the club provides a platform for individuals to showcase their moves and enjoy the rhythm. Its proximity to the city center at longitude 10.637853127292 and latitude 35.820659199508 makes it easily accessible for patrons seeking a lively and immersive dance experience.
+Gambino's pizza is a pizzeria located in akouda. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at the coordinates (39.561562, -95.121066).
+Station Services OLA Energy is a petrol station located in Akouda, Tunisia, at the coordinates (35.8988738, 10.5505777). Open 24 hours a day, the station offers a range of services to motorists, including fuel, lubricants, and car washes. With a rating of 4.5 out of 5 based on 14 reviews, the station is highly regarded by its customers for its friendly service and convenient location.
+Station de Transport Akouda - Chott Mariem, found in Akouda, Tunisia, is a taxi station that provides reliable transportation services. It is conveniently located at the coordinates (35.8691, 10.5653), making it easily accessible for locals and visitors alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4318,12 +5885,55 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>If you're in akouda and looking for a Station-service, check out Station Services OLA Energy located at Station Services OLA Energy, Rte De Tunis, GP 1, Km 128 Akouda, 4022. This top-rated destination offers a range of Station-service to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 35.8988738, 10.5505777. For more details, visit their website or call them at 28 155 155.</t>
+          <t>Station Services OLA Energy is a petrol station located in Akouda, Tunisia, at the coordinates (35.8988738, 10.5505777). Open 24 hours a day, the station offers a range of services to motorists, including fuel, lubricants, and car washes. With a rating of 4.5 out of 5 based on 14 reviews, the station is highly regarded by its customers for its friendly service and convenient location.</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Station-service with a convenient 24-hour schedule in Akouda?</t>
+          <t>Day Plan:
+Morning: Exploring the cultural immersion at the Municipality of Akouda.
+Mid-Morning: Savoring local cuisine at Fast food Mexico.
+Midday: Visiting the historical landmark of Cafe La Sirene.
+Afternoon: Enjoying a dance experience at AND Dance Sousse.
+Evening: Relaxing with a luxurious stay at Koussour Gharnata.
+Night: Taking a scenic stroll at Akouda beach.</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe La Sirene is a cafe located in Akouda, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is located at WH7F+QMX and can be contacted by phone at 73 328 049.
+Giornale is a café located in Av. de la Republique, Akouda. It is a popular spot for coffee, tea, and snacks, and offers a cozy atmosphere to relax and enjoy a cup of coffee. Giornale has a rating of 5.0 on Google reviews, and is open from 5am to 1am.
+Ilcapo is a popular cafe located in Akouda, Tunisia, with a 5-star rating based on 5 reviews. The cafe is open 24 hours a day and is known for its cozy atmosphere and delicious food. The cafe is located at the coordinates (35.8736484, 10.5695322) and offers a variety of food and drinks, including coffee, tea, pastries, and sandwiches.
+Fast food Mexico is a restaurant located in Akouda, Tunisia, at coordinates (35.8736484, 10.5695322). It offers a wide variety of Mexican dishes in a casual and friendly setting. The restaurant is open from 09:00-00:00 from Monday to Saturday and is closed on Sundays. Fast food Mexico has received an average rating of 4.0 based on 2 reviews on Google.
+Municipality of Akouda is located in Akouda, Tunisia. It is an administrative municipal building that provides local government services to the community. The municipality's office hours are from 8:00 AM to 5:00 PM during weekdays, and it is closed on Sundays.
+In the heart of Akouda, Koussour Gharnata offers a luxurious hotel experience. With impeccable ratings, the hotel boasts a prime location with convenient access to local attractions. Whether you're seeking relaxation or adventure, Koussour Gharnata invites you to explore its exceptional amenities and the vibrant city that surrounds it.
+Located in Akouda, AND Dance Sousse is a dance club offering a vibrant atmosphere for dance enthusiasts. With a focus on dance and entertainment, the club provides a platform for individuals to showcase their moves and enjoy the rhythm. Its proximity to the city center at longitude 10.637853127292 and latitude 35.820659199508 makes it easily accessible for patrons seeking a lively and immersive dance experience.
+Gambino's pizza is a pizzeria located in akouda. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at the coordinates (39.561562, -95.121066).
+Akouda is a gas station located in Akouda, at the coordinates (35.866141102648, 10.573438518111). It offers various services and products related to fueling and maintaining vehicles. The gas station is open from Monday to Saturday from 8:00 AM to 5:00 PM and is closed on Sundays.
+Station de Transport Akouda - Chott Mariem, found in Akouda, Tunisia, is a taxi station that provides reliable transportation services. It is conveniently located at the coordinates (35.8691, 10.5653), making it easily accessible for locals and visitors alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4427,12 +6037,56 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>If you happen to be in akouda, consider visiting Shell Hammam Sousse. Located on Route de Tunis Gp1 Borne Km 134 Oued Ennachef,ak Hamem Akouda, 4011, this popular destination is a must-visit for Station-service enthusiasts. Offering a range of relevant services such as Station de lavage automobile and Superette, this spot boasts a 2.5 rating based on 11 reviews. They are open 24 hours a day, so you can visit at your convenience. To get there, use the GPS coordinates (35.865665299755, 10.591215021252) or visit their website at https://find.shell.com/tn/fuel/TN_10090458-akouda. You can also call them at 71 249 149 for more information.</t>
+          <t>Shell Hammam Sousse is a gas station located in akouda, Tunisia. It is open 24 hours a day and offers a variety of services, including fuel, car wash, and convenience store. The station is conveniently located near the city center and is easily accessible by car.</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>If you're a fan of Station-services, where can you visit in Akouda that's highly rated by reviewers?</t>
+          <t>Day Plan:
+Morning: Explore the municipality of Akouda, the administrative hub of the local community.
+Mid-Morning: Visit Salon De The Le Rendez vous, a popular cafe with a relaxing ambiance, for a delightful coffee experience.
+Midday: Try local cuisine at Giornale, a cafe in Akouda known for its delicious coffee, tea, and snacks, with a high rating of 5.0 on Google reviews.
+Afternoon: Enjoy a scenic visit to Koussour Gharnata, a luxurious hotel offering impeccable ratings, where you can relax and soak in the beauty of the surroundings.
+Evening: Explore AND Dance Sousse, a dance club offering a vibrant atmosphere for dance enthusiasts.
+Night: Relish a delectable dinner at Ilcapo, a cafeteria offering a 24/7 sanctuary with an extensive menu of delectable treats and exceptional service.</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Salon De The Le Rendez vous, located in Akouda (36.742836, 10.1953352), is a popular cafe with a warm ambiance. It offers a relaxing environment with its featured image of a comfortable seating area. With a 4.3-star rating based on 9 reviews, Salon De The Le Rendez vous is open daily from 6 AM to midnight. Come and experience the delight of this cafe for yourself!
+Giornale is a café located in Av. de la Republique, Akouda. It is a popular spot for coffee, tea, and snacks, and offers a cozy atmosphere to relax and enjoy a cup of coffee. Giornale has a rating of 5.0 on Google reviews, and is open from 5am to 1am.
+**Ilcapo: A 24/7 Oasis in Akouda**
+Discover Ilcapo, a vibrant cafeteria offering a 24/7 sanctuary in Akouda. Located at VHF8+2P3, Ilcapo boasts a cozy atmosphere and an extensive menu of delectable treats. With a 5-star rating and glowing reviews praising its exceptional service and appetizing offerings, this cafe has become a beloved destination for locals and visitors alike.
+Discover Rapido food, Akouda's restaurant with a stellar 5.0 rating. Experience culinary delights in a convenient location, just a call away at 54 702 701. Using the website link, explore their offerings and plan your next dining experience.
+Municipality of Akouda is located in Akouda, Tunisia. It is an administrative municipal building that provides local government services to the community. The municipality's office hours are from 8:00 AM to 5:00 PM during weekdays, and it is closed on Sundays.
+In the heart of Akouda, Koussour Gharnata offers a luxurious hotel experience. With impeccable ratings, the hotel boasts a prime location with convenient access to local attractions. Whether you're seeking relaxation or adventure, Koussour Gharnata invites you to explore its exceptional amenities and the vibrant city that surrounds it.
+Located in Akouda, AND Dance Sousse is a dance club offering a vibrant atmosphere for dance enthusiasts. With a focus on dance and entertainment, the club provides a platform for individuals to showcase their moves and enjoy the rhythm. Its proximity to the city center at longitude 10.637853127292 and latitude 35.820659199508 makes it easily accessible for patrons seeking a lively and immersive dance experience.
+Gambino's pizza is a pizzeria located in akouda. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at the coordinates (39.561562, -95.121066).
+Akouda is a gas station located in Akouda, at the coordinates (35.866141102648, 10.573438518111). It offers various services and products related to fueling and maintaining vehicles. The gas station is open from Monday to Saturday from 8:00 AM to 5:00 PM and is closed on Sundays.
+Station de Transport Akouda - Chott Mariem, found in Akouda, Tunisia, is a taxi station that provides reliable transportation services. It is conveniently located at the coordinates (35.8691, 10.5653), making it easily accessible for locals and visitors alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4524,13 +6178,55 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>If you're in akouda and looking for a Station-service, check out Kiosque Shell Akouda 2 located at VH9M+2HC Kiosque Shell Akouda 2, Akouda. 
-This top-rated destination has a rating of 2.5. To get there, use these GPS coordinates: 35.8691, 10.5653. For more details, visit their website at https://www.google.com/maps/place/Kiosque+Shell+Akouda+2/data=!4m7!3m6!1s0x12fd8bdd8caf595b:0x5153b9e2a1d2c234!8m2!3d35.8675695!4d10.5838764!16s%2Fg%2F11hf2mwwz9!19sChIJW1mvjN2L_RIRNMLSoeK5U1E?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Kiosque Shell Akouda 2 is a gas station located in Akouda, Tunisia. It is rated 2.5 out of 5 stars by 10 reviewers and specializes in providing fuel and automotive services.</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Station-service in Akouda with GPS coordinates of 35.8691, 10.5653?</t>
+          <t>Day Plan:
+Morning: Explore the vibrant city center, taking in the local sights and sounds.
+Mid-Morning: Visit the historic Municipality of Akouda for a glimpse into the town's governance and history.
+Midday: Indulge in a delectable lunch at Be One Food, savoring the flavors of traditional Tunisian cuisine.
+Afternoon: Escape to Koussour Gharnata for a luxurious respite, enjoying the hotel's amenities and exploring the surrounding area.
+Evening: Experience the infectious energy of AND Dance Sousse, dancing the night away in the lively atmosphere.
+Night: Unwind with a stroll through Akouda, soaking in the city's charm under the moonlight.</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in the heart of Akouda, Tunisia, The 90's Coffee Shop is a cozy café that transports you back to the vibrant era of the 1990s. With a rating of 5.0, this popular spot offers a nostalgic ambiance, coupled with delicious coffee and treats. Its convenient location at coordinates (35.8736484, 10.5695322) makes it easily accessible to both locals and visitors alike. Whether you're seeking a caffeine fix or a momentary escape, The 90's Coffee Shop is the perfect destination.
+Giornale is a café located in Av. de la Republique, Akouda. It is a popular spot for coffee, tea, and snacks, and offers a cozy atmosphere to relax and enjoy a cup of coffee. Giornale has a rating of 5.0 on Google reviews, and is open from 5am to 1am.
+Ilcapo is a popular cafe located in Akouda, Tunisia, with a 5-star rating based on 5 reviews. The cafe is open 24 hours a day and is known for its cozy atmosphere and delicious food. The cafe is located at the coordinates (35.8736484, 10.5695322) and offers a variety of food and drinks, including coffee, tea, pastries, and sandwiches.
+Be One Food, a restaurant located in the Akouda district, is open 24 hours a day and offers a wide range of dishes. With a rating of 5.0 based on 3 reviews, it is a popular destination for diners looking for a delicious meal at any time of day. The restaurant's exact coordinates are (35.8736484, 10.5695322).
+Municipality of Akouda is located in Akouda, Tunisia. It is an administrative municipal building that provides local government services to the community. The municipality's office hours are from 8:00 AM to 5:00 PM during weekdays, and it is closed on Sundays.
+In the heart of Akouda, Koussour Gharnata offers a luxurious hotel experience. With impeccable ratings, the hotel boasts a prime location with convenient access to local attractions. Whether you're seeking relaxation or adventure, Koussour Gharnata invites you to explore its exceptional amenities and the vibrant city that surrounds it.
+Located in Akouda, AND Dance Sousse is a dance club offering a vibrant atmosphere for dance enthusiasts. With a focus on dance and entertainment, the club provides a platform for individuals to showcase their moves and enjoy the rhythm. Its proximity to the city center at longitude 10.637853127292 and latitude 35.820659199508 makes it easily accessible for patrons seeking a lively and immersive dance experience.
+Gambino's pizza is a pizzeria located in akouda. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at the coordinates (39.561562, -95.121066).
+Station Services OLA Energy is a petrol station located in Akouda, Tunisia, at the coordinates (35.8988738, 10.5505777). Open 24 hours a day, the station offers a range of services to motorists, including fuel, lubricants, and car washes. With a rating of 4.5 out of 5 based on 14 reviews, the station is highly regarded by its customers for its friendly service and convenient location.
+Station de Transport Akouda - Chott Mariem, found in Akouda, Tunisia, is a taxi station that provides reliable transportation services. It is conveniently located at the coordinates (35.8691, 10.5653), making it easily accessible for locals and visitors alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4630,12 +6326,55 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>Akouda, found at 280 Av. de la Republique, Akouda, should be your go-to spot in akouda. With a 4.5-star rating, this highly recommended Station-service is a favorite among locals. You can reach them at 98 610 655 for any queries or visit their website for more details.</t>
+          <t>Akouda is a gas station located in Akouda, at the coordinates (35.866141102648, 10.573438518111). It offers various services and products related to fueling and maintaining vehicles. The gas station is open from Monday to Saturday from 8:00 AM to 5:00 PM and is closed on Sundays.</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>Where in Akouda can you find a highly recommended 4.5-star rated Station-service located at 280 Av. de la Republique?</t>
+          <t>Day Plan:
+Morning: Exploring Koussour Gharnata
+Mid-Morning: Trying local cuisine at Restaurant Qods
+Midday: Visiting Municipality of Akouda
+Afternoon: Taking a guided tour of Station Services OLA Energy
+Evening: Participating in an Event/Activity at AND Dance Sousse
+Night: Enjoying scenic views at Gambino's pizza</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Salon De The Le Rendez vous, located in Akouda (36.742836, 10.1953352), is a popular cafe with a warm ambiance. It offers a relaxing environment with its featured image of a comfortable seating area. With a 4.3-star rating based on 9 reviews, Salon De The Le Rendez vous is open daily from 6 AM to midnight. Come and experience the delight of this cafe for yourself!
+Giornale is a café located in Av. de la Republique, Akouda. It is a popular spot for coffee, tea, and snacks, and offers a cozy atmosphere to relax and enjoy a cup of coffee. Giornale has a rating of 5.0 on Google reviews, and is open from 5am to 1am.
+Ilcapo is a popular cafe located in Akouda, Tunisia, with a 5-star rating based on 5 reviews. The cafe is open 24 hours a day and is known for its cozy atmosphere and delicious food. The cafe is located at the coordinates (35.8736484, 10.5695322) and offers a variety of food and drinks, including coffee, tea, pastries, and sandwiches.
+Restaurant Qods is a highly-rated restaurant located in Akouda, Tunisia. It's known for its excellent cuisine and friendly service. The restaurant serves a variety of dishes, including traditional Tunisian dishes and international cuisine. Restaurant Qods is open daily from 8:00 AM to 12:00 AM and is conveniently located near the city center.
+Municipality of Akouda is located in Akouda, Tunisia. It is an administrative municipal building that provides local government services to the community. The municipality's office hours are from 8:00 AM to 5:00 PM during weekdays, and it is closed on Sundays.
+In the heart of Akouda, Koussour Gharnata offers a luxurious hotel experience. With impeccable ratings, the hotel boasts a prime location with convenient access to local attractions. Whether you're seeking relaxation or adventure, Koussour Gharnata invites you to explore its exceptional amenities and the vibrant city that surrounds it.
+Located in Akouda, AND Dance Sousse is a dance club offering a vibrant atmosphere for dance enthusiasts. With a focus on dance and entertainment, the club provides a platform for individuals to showcase their moves and enjoy the rhythm. Its proximity to the city center at longitude 10.637853127292 and latitude 35.820659199508 makes it easily accessible for patrons seeking a lively and immersive dance experience.
+Gambino's pizza is a pizzeria located in akouda. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at the coordinates (39.561562, -95.121066).
+Station Services OLA Energy is a petrol station located in Akouda, Tunisia, at the coordinates (35.8988738, 10.5505777). Open 24 hours a day, the station offers a range of services to motorists, including fuel, lubricants, and car washes. With a rating of 4.5 out of 5 based on 14 reviews, the station is highly regarded by its customers for its friendly service and convenient location.
+Station de Transport Akouda - Chott Mariem is a taxi station located in Akouda, Tunisia. It offers transportation services to and from the city and surrounding areas, and is a convenient option for travelers and locals alike. The station is located at VH8C+HCH Station de Transport Akouda - Chott Mariem, Akouda, and has received a rating of 3.3 based on 3 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4723,12 +6462,56 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>If you're in akouda and looking for a reliable taxi station, visit Station de Transport Akouda - Chott Mariem located at VH8C+HCH Station de Transport Akouda - Chott Mariem, Akouda. This top-rated destination is perfect for taxi lovers and has a rating of 3.3. For more details, visit their website at https://www.google.com/maps/place/Station+de+Transport+Akouda+-+Chott+Mariem/data=!4m7!3m6!1s0x12fd8b44cc7268bd:0x8cd917de3c0554fe!8m2!3d35.8664495!4d10.5711124!16s%2Fg%2F11fj0p0jxm!19sChIJvWhyzESL_RIR_lQFPN4X2Yw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at the provided phone number.</t>
+          <t>Station de Transport Akouda - Chott Mariem is a taxi station located in Akouda, Tunisia. It offers transportation services to and from the city and surrounding areas, and is a convenient option for travelers and locals alike. The station is located at VH8C+HCH Station de Transport Akouda - Chott Mariem, Akouda, and has received a rating of 3.3 based on 3 reviews.</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated taxi station in Akouda with a location that makes it easily accessible?</t>
+          <t>Day Plan:
+Morning: Start the day with a guided tour of Koussour Gharnata to admire its luxurious ambiance and explore its amenities.
+Mid-Morning: Immerse yourself in the local culture by visiting Be One Food, savoring the tantalizing Tunisian flavors.
+Midday: Head over to AND Dance Sousse and unleash your moves on the lively dance floor, enjoying the vibrant energy.
+Afternoon: Explore the local market to discover authentic Tunisian handicrafts and souvenirs, immersing yourself in the vibrant shopping scene.
+Evening: Indulge in a delectable dinner at Giornale, relishing the aromatic coffee, delectable snacks, and cozy ambiance.
+Night: Wind down the day by relaxing at Ilcapo, a 24/7 oasis where you can unwind with a soothing drink and soak in the peaceful atmosphere.</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Hssine Khlaf is a cafe located at Av. de la Republique, Akouda. This cafe has a rating of 4.5 stars.
+Giornale is a café located in Av. de la Republique, Akouda. It is a popular spot for coffee, tea, and snacks, and offers a cozy atmosphere to relax and enjoy a cup of coffee. Giornale has a rating of 5.0 on Google reviews, and is open from 5am to 1am.
+**Ilcapo: A 24/7 Oasis in Akouda**
+Discover Ilcapo, a vibrant cafeteria offering a 24/7 sanctuary in Akouda. Located at VHF8+2P3, Ilcapo boasts a cozy atmosphere and an extensive menu of delectable treats. With a 5-star rating and glowing reviews praising its exceptional service and appetizing offerings, this cafe has become a beloved destination for locals and visitors alike.
+Nestled in the heart of Akouda, Be One Food is a culinary haven where you can indulge in delectable delights. Its convenient location (35.8988738, 10.5505777) makes it easily accessible to food enthusiasts. Although specific details about its menu and ambiance remain elusive, its exceptional rating of 5.0 stars based on two glowing reviews speaks volumes of the unforgettable gastronomic experience it offers.
+Municipality of Akouda is located in Akouda, Tunisia. It is an administrative municipal building that provides local government services to the community. The municipality's office hours are from 8:00 AM to 5:00 PM during weekdays, and it is closed on Sundays.
+In the heart of Akouda, Koussour Gharnata offers a luxurious hotel experience. With impeccable ratings, the hotel boasts a prime location with convenient access to local attractions. Whether you're seeking relaxation or adventure, Koussour Gharnata invites you to explore its exceptional amenities and the vibrant city that surrounds it.
+Located in Akouda, AND Dance Sousse is a dance club offering a vibrant atmosphere for dance enthusiasts. With a focus on dance and entertainment, the club provides a platform for individuals to showcase their moves and enjoy the rhythm. Its proximity to the city center at longitude 10.637853127292 and latitude 35.820659199508 makes it easily accessible for patrons seeking a lively and immersive dance experience.
+Gambino's pizza is a pizzeria located in akouda. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at the coordinates (39.561562, -95.121066).
+Akouda is a gas station located in Akouda, at the coordinates (35.866141102648, 10.573438518111). It offers various services and products related to fueling and maintaining vehicles. The gas station is open from Monday to Saturday from 8:00 AM to 5:00 PM and is closed on Sundays.
+Station de Transport Akouda - Chott Mariem, found in Akouda, Tunisia, is a taxi station that provides reliable transportation services. It is conveniently located at the coordinates (35.8691, 10.5653), making it easily accessible for locals and visitors alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4832,12 +6615,55 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>If you're in akouda and looking for a gas station, check out Shell Hammam Sousse located at Route de Tunis Gp1 Borne Km 134 Oued Ennachef,ak Hamem Akouda, 4011. This top-rated destination is perfect for gas station lovers and offers a range of services to choose from. With a rating of 2.5, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 35.865665299755, 10.591215021252. For more details, visit their website at  https://find.shell.com/tn/fuel/TN_10090458-akouda or call them at 71 249 149.</t>
+          <t>Shell Hammam Sousse is a gas station located in Akouda, Tunisia. It offers 24/7 service and features a car wash station and a convenience store. The gas station is conveniently located on Route de Tunis Gp1 Borne Km 134 Oued Ennachef.</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>Where in Akouda can you find a highly rated Shell gas station that operates 24 hours a day?</t>
+          <t>Day Plan:
+Morning: Explore Koussour Gharnata, a luxurious hotel with impeccable ratings, to admire its exceptional amenities and prime location.
+Mid-Morning: Visit Be One Food, a culinary haven with a 5.0-star rating, to indulge in delectable delights at its convenient location.
+Midday: Try local cuisine at Cafe La Sirene, open 24/7, offering a variety of food and drinks in the heart of Akouda.
+Afternoon: Enjoy recreational activities at AND Dance Sousse, a dance club with a vibrant atmosphere and proximity to the city center.
+Evening: Explore Giornale, a popular café with a cozy atmosphere and a 5.0 rating on Google reviews, for coffee, tea, and snacks.
+Night: Relax and soak in the luxurious ambiance of Ilcapo, a popular café with a 5-star rating based on 5 reviews, known for its cozy atmosphere and delicious food.</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe La Sirene is a cafe located in Akouda, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is located at WH7F+QMX and can be contacted by phone at 73 328 049.
+Giornale is a café located in Av. de la Republique, Akouda. It is a popular spot for coffee, tea, and snacks, and offers a cozy atmosphere to relax and enjoy a cup of coffee. Giornale has a rating of 5.0 on Google reviews, and is open from 5am to 1am.
+Ilcapo is a popular cafe located in Akouda, Tunisia, with a 5-star rating based on 5 reviews. The cafe is open 24 hours a day and is known for its cozy atmosphere and delicious food. The cafe is located at the coordinates (35.8736484, 10.5695322) and offers a variety of food and drinks, including coffee, tea, pastries, and sandwiches.
+Nestled in the heart of Akouda, Be One Food is a culinary haven where you can indulge in delectable delights. Its convenient location (35.8988738, 10.5505777) makes it easily accessible to food enthusiasts. Although specific details about its menu and ambiance remain elusive, its exceptional rating of 5.0 stars based on two glowing reviews speaks volumes of the unforgettable gastronomic experience it offers.
+Municipality of Akouda is located in Akouda, Tunisia. It is an administrative municipal building that provides local government services to the community. The municipality's office hours are from 8:00 AM to 5:00 PM during weekdays, and it is closed on Sundays.
+In the heart of Akouda, Koussour Gharnata offers a luxurious hotel experience. With impeccable ratings, the hotel boasts a prime location with convenient access to local attractions. Whether you're seeking relaxation or adventure, Koussour Gharnata invites you to explore its exceptional amenities and the vibrant city that surrounds it.
+Located in Akouda, AND Dance Sousse is a dance club offering a vibrant atmosphere for dance enthusiasts. With a focus on dance and entertainment, the club provides a platform for individuals to showcase their moves and enjoy the rhythm. Its proximity to the city center at longitude 10.637853127292 and latitude 35.820659199508 makes it easily accessible for patrons seeking a lively and immersive dance experience.
+Gambino's pizza is a pizzeria located in akouda. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at the coordinates (39.561562, -95.121066).
+Akouda is a gas station located in Akouda, at the coordinates (35.866141102648, 10.573438518111). It offers various services and products related to fueling and maintaining vehicles. The gas station is open from Monday to Saturday from 8:00 AM to 5:00 PM and is closed on Sundays.
+Station de Transport Akouda - Chott Mariem is a taxi station located in Akouda, Tunisia. It offers transportation services to and from the city and surrounding areas, and is a convenient option for travelers and locals alike. The station is located at VH8C+HCH Station de Transport Akouda - Chott Mariem, Akouda, and has received a rating of 3.3 based on 3 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4925,12 +6751,56 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>If you're in Akouda and looking for a reliable taxi station, check out Station de Transport Akouda - Chott Mariem located at VH8C+HCH Station de Transport Akouda - Chott Mariem, Akouda. This top-rated destination is perfect for taxi commuters and offers a range of taxi services. With a rating of 3.3, it's a must-visit spot. To get there, use these GPS coordinates: 35.8691, 10.5653. For more details, visit their website at https://www.google.com/maps/place/Station+de+Transport+Akouda+-+Chott+Mariem/data=!4m7!3m6!1s0x12fd8b44cc7268bd:0x8cd917de3c0554fe!8m2!3d35.8664495!4d10.5711124!16s%2Fg%2F11fj0p0jxm!19sChIJvWhyzESL_RIR_lQFPN4X2Yw?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Station de Transport Akouda - Chott Mariem, found in Akouda, Tunisia, is a taxi station that provides reliable transportation services. It is conveniently located at the coordinates (35.8691, 10.5653), making it easily accessible for locals and visitors alike.</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated taxi station with a variety of services in Akouda?</t>
+          <t>Day Plan:
+Morning: Take a guided tour of the Municipality of Akouda to learn about local government and history.
+Mid-Morning: Visit Koussour Gharnata Hotel to admire its luxurious amenities and enjoy scenic views of Akouda.
+Midday: Try local cuisine at Giornale, known for its cozy atmosphere and delicious coffee.
+Afternoon: Explore AND Dance Sousse for a lively and immersive dance experience.
+Evening: Enjoy a stroll through Salon De The Le Rendez vous for a relaxing ambiance.
+Night: Head to Ilcapo for a 24/7 sanctuary, offering a cozy atmosphere and delectable treats.</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Salon De The Le Rendez vous, located in Akouda (36.742836, 10.1953352), is a popular cafe with a warm ambiance. It offers a relaxing environment with its featured image of a comfortable seating area. With a 4.3-star rating based on 9 reviews, Salon De The Le Rendez vous is open daily from 6 AM to midnight. Come and experience the delight of this cafe for yourself!
+Giornale is a café located in Av. de la Republique, Akouda. It is a popular spot for coffee, tea, and snacks, and offers a cozy atmosphere to relax and enjoy a cup of coffee. Giornale has a rating of 5.0 on Google reviews, and is open from 5am to 1am.
+**Ilcapo: A 24/7 Oasis in Akouda**
+Discover Ilcapo, a vibrant cafeteria offering a 24/7 sanctuary in Akouda. Located at VHF8+2P3, Ilcapo boasts a cozy atmosphere and an extensive menu of delectable treats. With a 5-star rating and glowing reviews praising its exceptional service and appetizing offerings, this cafe has become a beloved destination for locals and visitors alike.
+Fast food Mexico is a restaurant located in Akouda, Tunisia, at coordinates (35.8736484, 10.5695322). It offers a wide variety of Mexican dishes in a casual and friendly setting. The restaurant is open from 09:00-00:00 from Monday to Saturday and is closed on Sundays. Fast food Mexico has received an average rating of 4.0 based on 2 reviews on Google.
+Municipality of Akouda is located in Akouda, Tunisia. It is an administrative municipal building that provides local government services to the community. The municipality's office hours are from 8:00 AM to 5:00 PM during weekdays, and it is closed on Sundays.
+In the heart of Akouda, Koussour Gharnata offers a luxurious hotel experience. With impeccable ratings, the hotel boasts a prime location with convenient access to local attractions. Whether you're seeking relaxation or adventure, Koussour Gharnata invites you to explore its exceptional amenities and the vibrant city that surrounds it.
+Located in Akouda, AND Dance Sousse is a dance club offering a vibrant atmosphere for dance enthusiasts. With a focus on dance and entertainment, the club provides a platform for individuals to showcase their moves and enjoy the rhythm. Its proximity to the city center at longitude 10.637853127292 and latitude 35.820659199508 makes it easily accessible for patrons seeking a lively and immersive dance experience.
+Gambino's pizza is a pizzeria located in akouda. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at the coordinates (39.561562, -95.121066).
+Akouda is a gas station located in Akouda, at the coordinates (35.866141102648, 10.573438518111). It offers various services and products related to fueling and maintaining vehicles. The gas station is open from Monday to Saturday from 8:00 AM to 5:00 PM and is closed on Sundays.
+Station de Transport Akouda - Chott Mariem, found in Akouda, Tunisia, is a taxi station that provides reliable transportation services. It is conveniently located at the coordinates (35.8691, 10.5653), making it easily accessible for locals and visitors alike.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5034,12 +6904,55 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>If you're in akouda and looking for a great place to refuel your vehicle, head to Shell Hammam Sousse located at Route de Tunis Gp1 Borne Km 134 Oued Ennachef,ak Hamem Akouda, 4011. This top-rated destination is perfect for Station-service lovers and offers a range of services to choose from, including Station de lavage automobile and Superette. With a rating of 2.5, it's a must-visit spot. It's open 24 hours a day, so you can visit anytime. To get there, use these GPS coordinates: 35.865665299755, 10.591215021252. For more details, visit their website at https://find.shell.com/tn/fuel/TN_10090458-akouda or call them at 71 249 149.</t>
+          <t>Shell Hammam Sousse is a gas station located in akouda, Tunisia. It offers a variety of services, including fuel, car wash, and convenience store. The station is open 24 hours a day and is located at the coordinates (35.865665299755, 10.591215021252).</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>Where in Akouda can you find a 24-hour station offering fuel, car wash, and a convenience store?</t>
+          <t>Day Plan:
+Morning: Exploring the local market.
+Mid-Morning: Trying local cuisine at Cafe Break Time.
+Midday: Visiting the Municipality of Akouda to learn about local government.
+Afternoon: Enjoying the cozy atmosphere and delicious food at Ilcapo.
+Evening: Dancing the night away at AND Dance Sousse.
+Night: Relaxing at the luxurious Koussour Gharnata.</t>
+        </is>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Break Time, located in Akouda (Tunisia), is a highly-rated (5.0/5) cafe open from 5:00 AM to 11:00 PM with a featured image showcasing its inviting ambiance. Located at coordinates (35.8736484, 10.5695322), this establishment offers a relaxing atmosphere for locals and tourists alike to enjoy a cup of coffee or tea.
+Giornale is a café located in Av. de la Republique, Akouda. It is a popular spot for coffee, tea, and snacks, and offers a cozy atmosphere to relax and enjoy a cup of coffee. Giornale has a rating of 5.0 on Google reviews, and is open from 5am to 1am.
+Ilcapo is a popular cafe located in Akouda, Tunisia, with a 5-star rating based on 5 reviews. The cafe is open 24 hours a day and is known for its cozy atmosphere and delicious food. The cafe is located at the coordinates (35.8736484, 10.5695322) and offers a variety of food and drinks, including coffee, tea, pastries, and sandwiches.
+Fast food Mexico is a restaurant located in Akouda, Tunisia, at coordinates (35.8736484, 10.5695322). It offers a wide variety of Mexican dishes in a casual and friendly setting. The restaurant is open from 09:00-00:00 from Monday to Saturday and is closed on Sundays. Fast food Mexico has received an average rating of 4.0 based on 2 reviews on Google.
+Municipality of Akouda is located in Akouda, Tunisia. It is an administrative municipal building that provides local government services to the community. The municipality's office hours are from 8:00 AM to 5:00 PM during weekdays, and it is closed on Sundays.
+In the heart of Akouda, Koussour Gharnata offers a luxurious hotel experience. With impeccable ratings, the hotel boasts a prime location with convenient access to local attractions. Whether you're seeking relaxation or adventure, Koussour Gharnata invites you to explore its exceptional amenities and the vibrant city that surrounds it.
+Located in Akouda, AND Dance Sousse is a dance club offering a vibrant atmosphere for dance enthusiasts. With a focus on dance and entertainment, the club provides a platform for individuals to showcase their moves and enjoy the rhythm. Its proximity to the city center at longitude 10.637853127292 and latitude 35.820659199508 makes it easily accessible for patrons seeking a lively and immersive dance experience.
+Gambino's pizza is a pizzeria located in akouda. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at the coordinates (39.561562, -95.121066).
+Station Services OLA Energy is a petrol station located in Akouda, Tunisia, at the coordinates (35.8988738, 10.5505777). Open 24 hours a day, the station offers a range of services to motorists, including fuel, lubricants, and car washes. With a rating of 4.5 out of 5 based on 14 reviews, the station is highly regarded by its customers for its friendly service and convenient location.
+Station de Transport Akouda - Chott Mariem is a taxi station located in Akouda, Tunisia. It offers transportation services to and from the city and surrounding areas, and is a convenient option for travelers and locals alike. The station is located at VH8C+HCH Station de Transport Akouda - Chott Mariem, Akouda, and has received a rating of 3.3 based on 3 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
